--- a/data/intermediate_steps/bands_identified2.xlsx
+++ b/data/intermediate_steps/bands_identified2.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10319"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10410"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/raddick/Documents/GitHub/musical-folksonomy/data/intermediate_steps/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DCE61C7-EDE1-4840-AAC1-3349C995F914}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2F66323-1B83-AF4B-BB81-30B5B97F7E74}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="140" yWindow="460" windowWidth="26980" windowHeight="15980" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -5150,8 +5150,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H794"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="171" zoomScaleNormal="171" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1"/>
+    <sheetView tabSelected="1" zoomScale="171" zoomScaleNormal="171" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
@@ -5185,8 +5185,8 @@
         <v>823</v>
       </c>
       <c r="H2">
-        <f>COUNTIF(B:B,G2)</f>
-        <v>54</v>
+        <f t="shared" ref="H2:H65" si="0">COUNTIF(B:B,G2)</f>
+        <v>56</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -5200,7 +5200,7 @@
         <v>793</v>
       </c>
       <c r="H3">
-        <f>COUNTIF(B:B,G3)</f>
+        <f t="shared" si="0"/>
         <v>30</v>
       </c>
     </row>
@@ -5215,7 +5215,7 @@
         <v>931</v>
       </c>
       <c r="H4">
-        <f>COUNTIF(B:B,G4)</f>
+        <f t="shared" si="0"/>
         <v>13</v>
       </c>
     </row>
@@ -5230,7 +5230,7 @@
         <v>1074</v>
       </c>
       <c r="H5">
-        <f>COUNTIF(B:B,G5)</f>
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
     </row>
@@ -5245,7 +5245,7 @@
         <v>843</v>
       </c>
       <c r="H6">
-        <f>COUNTIF(B:B,G6)</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
     </row>
@@ -5260,7 +5260,7 @@
         <v>1193</v>
       </c>
       <c r="H7">
-        <f>COUNTIF(B:B,G7)</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
     </row>
@@ -5269,13 +5269,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>798</v>
+        <v>823</v>
       </c>
       <c r="G8" t="s">
         <v>1343</v>
       </c>
       <c r="H8">
-        <f>COUNTIF(B:B,G8)</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
     </row>
@@ -5290,7 +5290,7 @@
         <v>849</v>
       </c>
       <c r="H9">
-        <f>COUNTIF(B:B,G9)</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
     </row>
@@ -5305,7 +5305,7 @@
         <v>871</v>
       </c>
       <c r="H10">
-        <f>COUNTIF(B:B,G10)</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
     </row>
@@ -5313,14 +5313,14 @@
       <c r="A11" t="s">
         <v>10</v>
       </c>
-      <c r="B11" s="1" t="s">
-        <v>798</v>
+      <c r="B11" t="s">
+        <v>823</v>
       </c>
       <c r="G11" t="s">
         <v>974</v>
       </c>
       <c r="H11">
-        <f>COUNTIF(B:B,G11)</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
     </row>
@@ -5335,7 +5335,7 @@
         <v>1070</v>
       </c>
       <c r="H12">
-        <f>COUNTIF(B:B,G12)</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
     </row>
@@ -5350,7 +5350,7 @@
         <v>1083</v>
       </c>
       <c r="H13">
-        <f>COUNTIF(B:B,G13)</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
     </row>
@@ -5365,7 +5365,7 @@
         <v>1155</v>
       </c>
       <c r="H14">
-        <f>COUNTIF(B:B,G14)</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
     </row>
@@ -5380,7 +5380,7 @@
         <v>1145</v>
       </c>
       <c r="H15">
-        <f>COUNTIF(B:B,G15)</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
     </row>
@@ -5395,7 +5395,7 @@
         <v>1036</v>
       </c>
       <c r="H16">
-        <f>COUNTIF(B:B,G16)</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
     </row>
@@ -5410,7 +5410,7 @@
         <v>876</v>
       </c>
       <c r="H17">
-        <f>COUNTIF(B:B,G17)</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
     </row>
@@ -5425,7 +5425,7 @@
         <v>921</v>
       </c>
       <c r="H18">
-        <f>COUNTIF(B:B,G18)</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
     </row>
@@ -5440,7 +5440,7 @@
         <v>954</v>
       </c>
       <c r="H19">
-        <f>COUNTIF(B:B,G19)</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
     </row>
@@ -5455,7 +5455,7 @@
         <v>940</v>
       </c>
       <c r="H20">
-        <f>COUNTIF(B:B,G20)</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
     </row>
@@ -5470,7 +5470,7 @@
         <v>946</v>
       </c>
       <c r="H21">
-        <f>COUNTIF(B:B,G21)</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
     </row>
@@ -5485,7 +5485,7 @@
         <v>947</v>
       </c>
       <c r="H22">
-        <f>COUNTIF(B:B,G22)</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
     </row>
@@ -5500,7 +5500,7 @@
         <v>967</v>
       </c>
       <c r="H23">
-        <f>COUNTIF(B:B,G23)</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
     </row>
@@ -5515,7 +5515,7 @@
         <v>968</v>
       </c>
       <c r="H24">
-        <f>COUNTIF(B:B,G24)</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
     </row>
@@ -5530,7 +5530,7 @@
         <v>980</v>
       </c>
       <c r="H25">
-        <f>COUNTIF(B:B,G25)</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
     </row>
@@ -5545,7 +5545,7 @@
         <v>984</v>
       </c>
       <c r="H26">
-        <f>COUNTIF(B:B,G26)</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
     </row>
@@ -5560,7 +5560,7 @@
         <v>886</v>
       </c>
       <c r="H27">
-        <f>COUNTIF(B:B,G27)</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
     </row>
@@ -5575,7 +5575,7 @@
         <v>1021</v>
       </c>
       <c r="H28">
-        <f>COUNTIF(B:B,G28)</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
     </row>
@@ -5590,7 +5590,7 @@
         <v>1035</v>
       </c>
       <c r="H29">
-        <f>COUNTIF(B:B,G29)</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
     </row>
@@ -5605,7 +5605,7 @@
         <v>847</v>
       </c>
       <c r="H30">
-        <f>COUNTIF(B:B,G30)</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
     </row>
@@ -5620,7 +5620,7 @@
         <v>1084</v>
       </c>
       <c r="H31">
-        <f>COUNTIF(B:B,G31)</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
     </row>
@@ -5635,7 +5635,7 @@
         <v>1159</v>
       </c>
       <c r="H32">
-        <f>COUNTIF(B:B,G32)</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
     </row>
@@ -5650,7 +5650,7 @@
         <v>1187</v>
       </c>
       <c r="H33">
-        <f>COUNTIF(B:B,G33)</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
     </row>
@@ -5665,7 +5665,7 @@
         <v>1197</v>
       </c>
       <c r="H34">
-        <f>COUNTIF(B:B,G34)</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
     </row>
@@ -5680,8 +5680,8 @@
         <v>798</v>
       </c>
       <c r="H35">
-        <f>COUNTIF(B:B,G35)</f>
-        <v>2</v>
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -5695,7 +5695,7 @@
         <v>1158</v>
       </c>
       <c r="H36">
-        <f>COUNTIF(B:B,G36)</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
     </row>
@@ -5710,7 +5710,7 @@
         <v>1254</v>
       </c>
       <c r="H37">
-        <f>COUNTIF(B:B,G37)</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
     </row>
@@ -5725,7 +5725,7 @@
         <v>1256</v>
       </c>
       <c r="H38">
-        <f>COUNTIF(B:B,G38)</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
     </row>
@@ -5740,7 +5740,7 @@
         <v>1262</v>
       </c>
       <c r="H39">
-        <f>COUNTIF(B:B,G39)</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
     </row>
@@ -5755,7 +5755,7 @@
         <v>1266</v>
       </c>
       <c r="H40">
-        <f>COUNTIF(B:B,G40)</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
     </row>
@@ -5770,7 +5770,7 @@
         <v>1275</v>
       </c>
       <c r="H41">
-        <f>COUNTIF(B:B,G41)</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
     </row>
@@ -5785,7 +5785,7 @@
         <v>1315</v>
       </c>
       <c r="H42">
-        <f>COUNTIF(B:B,G42)</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
     </row>
@@ -5800,7 +5800,7 @@
         <v>1346</v>
       </c>
       <c r="H43">
-        <f>COUNTIF(B:B,G43)</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
     </row>
@@ -5815,7 +5815,7 @@
         <v>1349</v>
       </c>
       <c r="H44">
-        <f>COUNTIF(B:B,G44)</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
     </row>
@@ -5830,7 +5830,7 @@
         <v>930</v>
       </c>
       <c r="H45">
-        <f>COUNTIF(B:B,G45)</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
     </row>
@@ -5845,7 +5845,7 @@
         <v>952</v>
       </c>
       <c r="H46">
-        <f>COUNTIF(B:B,G46)</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
     </row>
@@ -5860,7 +5860,7 @@
         <v>1063</v>
       </c>
       <c r="H47">
-        <f>COUNTIF(B:B,G47)</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
     </row>
@@ -5875,7 +5875,7 @@
         <v>1397</v>
       </c>
       <c r="H48">
-        <f>COUNTIF(B:B,G48)</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
     </row>
@@ -5890,7 +5890,7 @@
         <v>1356</v>
       </c>
       <c r="H49">
-        <f>COUNTIF(B:B,G49)</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
     </row>
@@ -5905,7 +5905,7 @@
         <v>1370</v>
       </c>
       <c r="H50">
-        <f>COUNTIF(B:B,G50)</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
     </row>
@@ -5920,7 +5920,7 @@
         <v>1371</v>
       </c>
       <c r="H51">
-        <f>COUNTIF(B:B,G51)</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
     </row>
@@ -5935,7 +5935,7 @@
         <v>1393</v>
       </c>
       <c r="H52">
-        <f>COUNTIF(B:B,G52)</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
     </row>
@@ -5950,7 +5950,7 @@
         <v>1394</v>
       </c>
       <c r="H53">
-        <f>COUNTIF(B:B,G53)</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
     </row>
@@ -5965,7 +5965,7 @@
         <v>1412</v>
       </c>
       <c r="H54">
-        <f>COUNTIF(B:B,G54)</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
     </row>
@@ -5980,7 +5980,7 @@
         <v>794</v>
       </c>
       <c r="H55">
-        <f>COUNTIF(B:B,G55)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -5995,7 +5995,7 @@
         <v>796</v>
       </c>
       <c r="H56">
-        <f>COUNTIF(B:B,G56)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -6010,7 +6010,7 @@
         <v>828</v>
       </c>
       <c r="H57">
-        <f>COUNTIF(B:B,G57)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -6025,7 +6025,7 @@
         <v>800</v>
       </c>
       <c r="H58">
-        <f>COUNTIF(B:B,G58)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -6040,7 +6040,7 @@
         <v>810</v>
       </c>
       <c r="H59">
-        <f>COUNTIF(B:B,G59)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -6055,7 +6055,7 @@
         <v>802</v>
       </c>
       <c r="H60">
-        <f>COUNTIF(B:B,G60)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -6070,7 +6070,7 @@
         <v>801</v>
       </c>
       <c r="H61">
-        <f>COUNTIF(B:B,G61)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -6085,7 +6085,7 @@
         <v>803</v>
       </c>
       <c r="H62">
-        <f>COUNTIF(B:B,G62)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -6100,7 +6100,7 @@
         <v>1119</v>
       </c>
       <c r="H63">
-        <f>COUNTIF(B:B,G63)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -6115,7 +6115,7 @@
         <v>804</v>
       </c>
       <c r="H64">
-        <f>COUNTIF(B:B,G64)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -6130,7 +6130,7 @@
         <v>805</v>
       </c>
       <c r="H65">
-        <f>COUNTIF(B:B,G65)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -6145,7 +6145,7 @@
         <v>806</v>
       </c>
       <c r="H66">
-        <f>COUNTIF(B:B,G66)</f>
+        <f t="shared" ref="H66:H129" si="1">COUNTIF(B:B,G66)</f>
         <v>1</v>
       </c>
     </row>
@@ -6160,7 +6160,7 @@
         <v>807</v>
       </c>
       <c r="H67">
-        <f>COUNTIF(B:B,G67)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -6175,7 +6175,7 @@
         <v>808</v>
       </c>
       <c r="H68">
-        <f>COUNTIF(B:B,G68)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -6190,7 +6190,7 @@
         <v>809</v>
       </c>
       <c r="H69">
-        <f>COUNTIF(B:B,G69)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -6205,7 +6205,7 @@
         <v>815</v>
       </c>
       <c r="H70">
-        <f>COUNTIF(B:B,G70)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -6220,7 +6220,7 @@
         <v>811</v>
       </c>
       <c r="H71">
-        <f>COUNTIF(B:B,G71)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -6235,7 +6235,7 @@
         <v>812</v>
       </c>
       <c r="H72">
-        <f>COUNTIF(B:B,G72)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -6250,7 +6250,7 @@
         <v>813</v>
       </c>
       <c r="H73">
-        <f>COUNTIF(B:B,G73)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -6265,7 +6265,7 @@
         <v>814</v>
       </c>
       <c r="H74">
-        <f>COUNTIF(B:B,G74)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -6280,7 +6280,7 @@
         <v>816</v>
       </c>
       <c r="H75">
-        <f>COUNTIF(B:B,G75)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -6295,7 +6295,7 @@
         <v>817</v>
       </c>
       <c r="H76">
-        <f>COUNTIF(B:B,G76)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -6310,7 +6310,7 @@
         <v>818</v>
       </c>
       <c r="H77">
-        <f>COUNTIF(B:B,G77)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -6325,7 +6325,7 @@
         <v>868</v>
       </c>
       <c r="H78">
-        <f>COUNTIF(B:B,G78)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -6340,7 +6340,7 @@
         <v>819</v>
       </c>
       <c r="H79">
-        <f>COUNTIF(B:B,G79)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -6355,7 +6355,7 @@
         <v>820</v>
       </c>
       <c r="H80">
-        <f>COUNTIF(B:B,G80)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -6370,7 +6370,7 @@
         <v>821</v>
       </c>
       <c r="H81">
-        <f>COUNTIF(B:B,G81)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -6385,7 +6385,7 @@
         <v>822</v>
       </c>
       <c r="H82">
-        <f>COUNTIF(B:B,G82)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -6400,7 +6400,7 @@
         <v>825</v>
       </c>
       <c r="H83">
-        <f>COUNTIF(B:B,G83)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -6415,7 +6415,7 @@
         <v>826</v>
       </c>
       <c r="H84">
-        <f>COUNTIF(B:B,G84)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -6430,7 +6430,7 @@
         <v>827</v>
       </c>
       <c r="H85">
-        <f>COUNTIF(B:B,G85)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -6445,7 +6445,7 @@
         <v>829</v>
       </c>
       <c r="H86">
-        <f>COUNTIF(B:B,G86)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -6460,7 +6460,7 @@
         <v>830</v>
       </c>
       <c r="H87">
-        <f>COUNTIF(B:B,G87)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -6475,7 +6475,7 @@
         <v>840</v>
       </c>
       <c r="H88">
-        <f>COUNTIF(B:B,G88)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -6490,7 +6490,7 @@
         <v>832</v>
       </c>
       <c r="H89">
-        <f>COUNTIF(B:B,G89)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -6505,7 +6505,7 @@
         <v>869</v>
       </c>
       <c r="H90">
-        <f>COUNTIF(B:B,G90)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -6520,7 +6520,7 @@
         <v>833</v>
       </c>
       <c r="H91">
-        <f>COUNTIF(B:B,G91)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -6535,7 +6535,7 @@
         <v>834</v>
       </c>
       <c r="H92">
-        <f>COUNTIF(B:B,G92)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -6550,7 +6550,7 @@
         <v>835</v>
       </c>
       <c r="H93">
-        <f>COUNTIF(B:B,G93)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -6565,7 +6565,7 @@
         <v>836</v>
       </c>
       <c r="H94">
-        <f>COUNTIF(B:B,G94)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -6580,7 +6580,7 @@
         <v>838</v>
       </c>
       <c r="H95">
-        <f>COUNTIF(B:B,G95)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -6595,7 +6595,7 @@
         <v>839</v>
       </c>
       <c r="H96">
-        <f>COUNTIF(B:B,G96)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -6610,7 +6610,7 @@
         <v>844</v>
       </c>
       <c r="H97">
-        <f>COUNTIF(B:B,G97)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -6625,7 +6625,7 @@
         <v>845</v>
       </c>
       <c r="H98">
-        <f>COUNTIF(B:B,G98)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -6640,7 +6640,7 @@
         <v>846</v>
       </c>
       <c r="H99">
-        <f>COUNTIF(B:B,G99)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -6655,7 +6655,7 @@
         <v>848</v>
       </c>
       <c r="H100">
-        <f>COUNTIF(B:B,G100)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -6670,7 +6670,7 @@
         <v>850</v>
       </c>
       <c r="H101">
-        <f>COUNTIF(B:B,G101)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -6685,7 +6685,7 @@
         <v>851</v>
       </c>
       <c r="H102">
-        <f>COUNTIF(B:B,G102)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -6700,7 +6700,7 @@
         <v>852</v>
       </c>
       <c r="H103">
-        <f>COUNTIF(B:B,G103)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -6715,7 +6715,7 @@
         <v>853</v>
       </c>
       <c r="H104">
-        <f>COUNTIF(B:B,G104)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -6730,7 +6730,7 @@
         <v>854</v>
       </c>
       <c r="H105">
-        <f>COUNTIF(B:B,G105)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -6745,7 +6745,7 @@
         <v>856</v>
       </c>
       <c r="H106">
-        <f>COUNTIF(B:B,G106)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -6760,7 +6760,7 @@
         <v>855</v>
       </c>
       <c r="H107">
-        <f>COUNTIF(B:B,G107)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -6775,7 +6775,7 @@
         <v>857</v>
       </c>
       <c r="H108">
-        <f>COUNTIF(B:B,G108)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -6790,7 +6790,7 @@
         <v>858</v>
       </c>
       <c r="H109">
-        <f>COUNTIF(B:B,G109)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -6805,7 +6805,7 @@
         <v>1395</v>
       </c>
       <c r="H110">
-        <f>COUNTIF(B:B,G110)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -6820,7 +6820,7 @@
         <v>859</v>
       </c>
       <c r="H111">
-        <f>COUNTIF(B:B,G111)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -6835,7 +6835,7 @@
         <v>860</v>
       </c>
       <c r="H112">
-        <f>COUNTIF(B:B,G112)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -6850,7 +6850,7 @@
         <v>861</v>
       </c>
       <c r="H113">
-        <f>COUNTIF(B:B,G113)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -6865,7 +6865,7 @@
         <v>862</v>
       </c>
       <c r="H114">
-        <f>COUNTIF(B:B,G114)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -6880,7 +6880,7 @@
         <v>863</v>
       </c>
       <c r="H115">
-        <f>COUNTIF(B:B,G115)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -6895,7 +6895,7 @@
         <v>864</v>
       </c>
       <c r="H116">
-        <f>COUNTIF(B:B,G116)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -6910,7 +6910,7 @@
         <v>866</v>
       </c>
       <c r="H117">
-        <f>COUNTIF(B:B,G117)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -6925,7 +6925,7 @@
         <v>891</v>
       </c>
       <c r="H118">
-        <f>COUNTIF(B:B,G118)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -6940,7 +6940,7 @@
         <v>867</v>
       </c>
       <c r="H119">
-        <f>COUNTIF(B:B,G119)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -6955,7 +6955,7 @@
         <v>870</v>
       </c>
       <c r="H120">
-        <f>COUNTIF(B:B,G120)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -6970,7 +6970,7 @@
         <v>872</v>
       </c>
       <c r="H121">
-        <f>COUNTIF(B:B,G121)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -6985,7 +6985,7 @@
         <v>873</v>
       </c>
       <c r="H122">
-        <f>COUNTIF(B:B,G122)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -7000,7 +7000,7 @@
         <v>874</v>
       </c>
       <c r="H123">
-        <f>COUNTIF(B:B,G123)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -7015,7 +7015,7 @@
         <v>875</v>
       </c>
       <c r="H124">
-        <f>COUNTIF(B:B,G124)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -7030,7 +7030,7 @@
         <v>878</v>
       </c>
       <c r="H125">
-        <f>COUNTIF(B:B,G125)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -7045,7 +7045,7 @@
         <v>865</v>
       </c>
       <c r="H126">
-        <f>COUNTIF(B:B,G126)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -7060,7 +7060,7 @@
         <v>879</v>
       </c>
       <c r="H127">
-        <f>COUNTIF(B:B,G127)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -7075,7 +7075,7 @@
         <v>837</v>
       </c>
       <c r="H128">
-        <f>COUNTIF(B:B,G128)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -7090,7 +7090,7 @@
         <v>880</v>
       </c>
       <c r="H129">
-        <f>COUNTIF(B:B,G129)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -7105,7 +7105,7 @@
         <v>842</v>
       </c>
       <c r="H130">
-        <f>COUNTIF(B:B,G130)</f>
+        <f t="shared" ref="H130:H193" si="2">COUNTIF(B:B,G130)</f>
         <v>1</v>
       </c>
     </row>
@@ -7120,7 +7120,7 @@
         <v>881</v>
       </c>
       <c r="H131">
-        <f>COUNTIF(B:B,G131)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -7135,7 +7135,7 @@
         <v>883</v>
       </c>
       <c r="H132">
-        <f>COUNTIF(B:B,G132)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -7150,7 +7150,7 @@
         <v>882</v>
       </c>
       <c r="H133">
-        <f>COUNTIF(B:B,G133)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -7165,7 +7165,7 @@
         <v>884</v>
       </c>
       <c r="H134">
-        <f>COUNTIF(B:B,G134)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -7180,7 +7180,7 @@
         <v>885</v>
       </c>
       <c r="H135">
-        <f>COUNTIF(B:B,G135)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -7195,7 +7195,7 @@
         <v>887</v>
       </c>
       <c r="H136">
-        <f>COUNTIF(B:B,G136)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -7210,7 +7210,7 @@
         <v>888</v>
       </c>
       <c r="H137">
-        <f>COUNTIF(B:B,G137)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -7225,7 +7225,7 @@
         <v>890</v>
       </c>
       <c r="H138">
-        <f>COUNTIF(B:B,G138)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -7240,7 +7240,7 @@
         <v>892</v>
       </c>
       <c r="H139">
-        <f>COUNTIF(B:B,G139)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -7255,7 +7255,7 @@
         <v>927</v>
       </c>
       <c r="H140">
-        <f>COUNTIF(B:B,G140)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -7270,7 +7270,7 @@
         <v>911</v>
       </c>
       <c r="H141">
-        <f>COUNTIF(B:B,G141)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -7285,7 +7285,7 @@
         <v>897</v>
       </c>
       <c r="H142">
-        <f>COUNTIF(B:B,G142)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -7300,7 +7300,7 @@
         <v>893</v>
       </c>
       <c r="H143">
-        <f>COUNTIF(B:B,G143)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -7315,7 +7315,7 @@
         <v>895</v>
       </c>
       <c r="H144">
-        <f>COUNTIF(B:B,G144)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -7330,7 +7330,7 @@
         <v>896</v>
       </c>
       <c r="H145">
-        <f>COUNTIF(B:B,G145)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -7345,7 +7345,7 @@
         <v>899</v>
       </c>
       <c r="H146">
-        <f>COUNTIF(B:B,G146)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -7360,7 +7360,7 @@
         <v>900</v>
       </c>
       <c r="H147">
-        <f>COUNTIF(B:B,G147)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -7375,7 +7375,7 @@
         <v>907</v>
       </c>
       <c r="H148">
-        <f>COUNTIF(B:B,G148)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -7390,7 +7390,7 @@
         <v>901</v>
       </c>
       <c r="H149">
-        <f>COUNTIF(B:B,G149)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -7405,7 +7405,7 @@
         <v>902</v>
       </c>
       <c r="H150">
-        <f>COUNTIF(B:B,G150)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -7420,7 +7420,7 @@
         <v>903</v>
       </c>
       <c r="H151">
-        <f>COUNTIF(B:B,G151)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -7435,7 +7435,7 @@
         <v>904</v>
       </c>
       <c r="H152">
-        <f>COUNTIF(B:B,G152)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -7450,7 +7450,7 @@
         <v>905</v>
       </c>
       <c r="H153">
-        <f>COUNTIF(B:B,G153)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -7465,7 +7465,7 @@
         <v>906</v>
       </c>
       <c r="H154">
-        <f>COUNTIF(B:B,G154)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -7480,7 +7480,7 @@
         <v>898</v>
       </c>
       <c r="H155">
-        <f>COUNTIF(B:B,G155)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -7495,7 +7495,7 @@
         <v>908</v>
       </c>
       <c r="H156">
-        <f>COUNTIF(B:B,G156)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -7510,7 +7510,7 @@
         <v>922</v>
       </c>
       <c r="H157">
-        <f>COUNTIF(B:B,G157)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -7525,7 +7525,7 @@
         <v>909</v>
       </c>
       <c r="H158">
-        <f>COUNTIF(B:B,G158)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -7540,7 +7540,7 @@
         <v>910</v>
       </c>
       <c r="H159">
-        <f>COUNTIF(B:B,G159)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -7555,7 +7555,7 @@
         <v>948</v>
       </c>
       <c r="H160">
-        <f>COUNTIF(B:B,G160)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -7570,7 +7570,7 @@
         <v>913</v>
       </c>
       <c r="H161">
-        <f>COUNTIF(B:B,G161)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -7585,7 +7585,7 @@
         <v>916</v>
       </c>
       <c r="H162">
-        <f>COUNTIF(B:B,G162)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -7600,7 +7600,7 @@
         <v>917</v>
       </c>
       <c r="H163">
-        <f>COUNTIF(B:B,G163)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -7615,7 +7615,7 @@
         <v>918</v>
       </c>
       <c r="H164">
-        <f>COUNTIF(B:B,G164)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -7630,7 +7630,7 @@
         <v>920</v>
       </c>
       <c r="H165">
-        <f>COUNTIF(B:B,G165)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -7645,7 +7645,7 @@
         <v>923</v>
       </c>
       <c r="H166">
-        <f>COUNTIF(B:B,G166)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -7660,7 +7660,7 @@
         <v>924</v>
       </c>
       <c r="H167">
-        <f>COUNTIF(B:B,G167)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -7675,7 +7675,7 @@
         <v>925</v>
       </c>
       <c r="H168">
-        <f>COUNTIF(B:B,G168)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -7690,7 +7690,7 @@
         <v>928</v>
       </c>
       <c r="H169">
-        <f>COUNTIF(B:B,G169)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -7705,7 +7705,7 @@
         <v>929</v>
       </c>
       <c r="H170">
-        <f>COUNTIF(B:B,G170)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -7720,7 +7720,7 @@
         <v>933</v>
       </c>
       <c r="H171">
-        <f>COUNTIF(B:B,G171)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -7735,7 +7735,7 @@
         <v>932</v>
       </c>
       <c r="H172">
-        <f>COUNTIF(B:B,G172)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -7750,7 +7750,7 @@
         <v>934</v>
       </c>
       <c r="H173">
-        <f>COUNTIF(B:B,G173)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -7765,7 +7765,7 @@
         <v>939</v>
       </c>
       <c r="H174">
-        <f>COUNTIF(B:B,G174)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -7780,7 +7780,7 @@
         <v>935</v>
       </c>
       <c r="H175">
-        <f>COUNTIF(B:B,G175)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -7795,7 +7795,7 @@
         <v>936</v>
       </c>
       <c r="H176">
-        <f>COUNTIF(B:B,G176)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -7810,7 +7810,7 @@
         <v>962</v>
       </c>
       <c r="H177">
-        <f>COUNTIF(B:B,G177)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -7825,7 +7825,7 @@
         <v>937</v>
       </c>
       <c r="H178">
-        <f>COUNTIF(B:B,G178)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -7840,7 +7840,7 @@
         <v>926</v>
       </c>
       <c r="H179">
-        <f>COUNTIF(B:B,G179)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -7855,7 +7855,7 @@
         <v>941</v>
       </c>
       <c r="H180">
-        <f>COUNTIF(B:B,G180)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -7870,7 +7870,7 @@
         <v>942</v>
       </c>
       <c r="H181">
-        <f>COUNTIF(B:B,G181)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -7885,7 +7885,7 @@
         <v>944</v>
       </c>
       <c r="H182">
-        <f>COUNTIF(B:B,G182)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -7900,7 +7900,7 @@
         <v>945</v>
       </c>
       <c r="H183">
-        <f>COUNTIF(B:B,G183)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -7915,7 +7915,7 @@
         <v>953</v>
       </c>
       <c r="H184">
-        <f>COUNTIF(B:B,G184)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -7930,7 +7930,7 @@
         <v>951</v>
       </c>
       <c r="H185">
-        <f>COUNTIF(B:B,G185)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -7945,7 +7945,7 @@
         <v>950</v>
       </c>
       <c r="H186">
-        <f>COUNTIF(B:B,G186)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -7960,7 +7960,7 @@
         <v>949</v>
       </c>
       <c r="H187">
-        <f>COUNTIF(B:B,G187)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -7975,7 +7975,7 @@
         <v>955</v>
       </c>
       <c r="H188">
-        <f>COUNTIF(B:B,G188)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -7990,7 +7990,7 @@
         <v>956</v>
       </c>
       <c r="H189">
-        <f>COUNTIF(B:B,G189)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -8005,7 +8005,7 @@
         <v>958</v>
       </c>
       <c r="H190">
-        <f>COUNTIF(B:B,G190)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -8020,7 +8020,7 @@
         <v>960</v>
       </c>
       <c r="H191">
-        <f>COUNTIF(B:B,G191)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -8035,7 +8035,7 @@
         <v>963</v>
       </c>
       <c r="H192">
-        <f>COUNTIF(B:B,G192)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -8050,7 +8050,7 @@
         <v>964</v>
       </c>
       <c r="H193">
-        <f>COUNTIF(B:B,G193)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -8065,7 +8065,7 @@
         <v>965</v>
       </c>
       <c r="H194">
-        <f>COUNTIF(B:B,G194)</f>
+        <f t="shared" ref="H194:H257" si="3">COUNTIF(B:B,G194)</f>
         <v>1</v>
       </c>
     </row>
@@ -8080,7 +8080,7 @@
         <v>961</v>
       </c>
       <c r="H195">
-        <f>COUNTIF(B:B,G195)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
@@ -8095,7 +8095,7 @@
         <v>966</v>
       </c>
       <c r="H196">
-        <f>COUNTIF(B:B,G196)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
@@ -8110,7 +8110,7 @@
         <v>969</v>
       </c>
       <c r="H197">
-        <f>COUNTIF(B:B,G197)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
@@ -8125,7 +8125,7 @@
         <v>971</v>
       </c>
       <c r="H198">
-        <f>COUNTIF(B:B,G198)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
@@ -8140,7 +8140,7 @@
         <v>979</v>
       </c>
       <c r="H199">
-        <f>COUNTIF(B:B,G199)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
@@ -8155,7 +8155,7 @@
         <v>973</v>
       </c>
       <c r="H200">
-        <f>COUNTIF(B:B,G200)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
@@ -8170,7 +8170,7 @@
         <v>975</v>
       </c>
       <c r="H201">
-        <f>COUNTIF(B:B,G201)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
@@ -8185,7 +8185,7 @@
         <v>976</v>
       </c>
       <c r="H202">
-        <f>COUNTIF(B:B,G202)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
@@ -8200,7 +8200,7 @@
         <v>977</v>
       </c>
       <c r="H203">
-        <f>COUNTIF(B:B,G203)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
@@ -8215,7 +8215,7 @@
         <v>978</v>
       </c>
       <c r="H204">
-        <f>COUNTIF(B:B,G204)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
@@ -8230,7 +8230,7 @@
         <v>981</v>
       </c>
       <c r="H205">
-        <f>COUNTIF(B:B,G205)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
@@ -8245,7 +8245,7 @@
         <v>982</v>
       </c>
       <c r="H206">
-        <f>COUNTIF(B:B,G206)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
@@ -8260,7 +8260,7 @@
         <v>983</v>
       </c>
       <c r="H207">
-        <f>COUNTIF(B:B,G207)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
@@ -8275,7 +8275,7 @@
         <v>985</v>
       </c>
       <c r="H208">
-        <f>COUNTIF(B:B,G208)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
@@ -8290,7 +8290,7 @@
         <v>986</v>
       </c>
       <c r="H209">
-        <f>COUNTIF(B:B,G209)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
@@ -8305,7 +8305,7 @@
         <v>987</v>
       </c>
       <c r="H210">
-        <f>COUNTIF(B:B,G210)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
@@ -8320,7 +8320,7 @@
         <v>988</v>
       </c>
       <c r="H211">
-        <f>COUNTIF(B:B,G211)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
@@ -8335,7 +8335,7 @@
         <v>989</v>
       </c>
       <c r="H212">
-        <f>COUNTIF(B:B,G212)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
@@ -8350,7 +8350,7 @@
         <v>990</v>
       </c>
       <c r="H213">
-        <f>COUNTIF(B:B,G213)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
@@ -8365,7 +8365,7 @@
         <v>970</v>
       </c>
       <c r="H214">
-        <f>COUNTIF(B:B,G214)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
@@ -8380,7 +8380,7 @@
         <v>972</v>
       </c>
       <c r="H215">
-        <f>COUNTIF(B:B,G215)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
@@ -8395,7 +8395,7 @@
         <v>994</v>
       </c>
       <c r="H216">
-        <f>COUNTIF(B:B,G216)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
@@ -8410,7 +8410,7 @@
         <v>991</v>
       </c>
       <c r="H217">
-        <f>COUNTIF(B:B,G217)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
@@ -8425,7 +8425,7 @@
         <v>992</v>
       </c>
       <c r="H218">
-        <f>COUNTIF(B:B,G218)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
@@ -8440,7 +8440,7 @@
         <v>993</v>
       </c>
       <c r="H219">
-        <f>COUNTIF(B:B,G219)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
@@ -8455,7 +8455,7 @@
         <v>995</v>
       </c>
       <c r="H220">
-        <f>COUNTIF(B:B,G220)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
@@ -8470,7 +8470,7 @@
         <v>996</v>
       </c>
       <c r="H221">
-        <f>COUNTIF(B:B,G221)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
@@ -8485,7 +8485,7 @@
         <v>997</v>
       </c>
       <c r="H222">
-        <f>COUNTIF(B:B,G222)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
@@ -8500,7 +8500,7 @@
         <v>998</v>
       </c>
       <c r="H223">
-        <f>COUNTIF(B:B,G223)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
@@ -8515,7 +8515,7 @@
         <v>999</v>
       </c>
       <c r="H224">
-        <f>COUNTIF(B:B,G224)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
@@ -8530,7 +8530,7 @@
         <v>1000</v>
       </c>
       <c r="H225">
-        <f>COUNTIF(B:B,G225)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
@@ -8545,7 +8545,7 @@
         <v>1001</v>
       </c>
       <c r="H226">
-        <f>COUNTIF(B:B,G226)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
@@ -8560,7 +8560,7 @@
         <v>1034</v>
       </c>
       <c r="H227">
-        <f>COUNTIF(B:B,G227)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
@@ -8575,7 +8575,7 @@
         <v>1002</v>
       </c>
       <c r="H228">
-        <f>COUNTIF(B:B,G228)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
@@ -8590,7 +8590,7 @@
         <v>1003</v>
       </c>
       <c r="H229">
-        <f>COUNTIF(B:B,G229)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
@@ -8605,7 +8605,7 @@
         <v>1004</v>
       </c>
       <c r="H230">
-        <f>COUNTIF(B:B,G230)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
@@ -8620,7 +8620,7 @@
         <v>1005</v>
       </c>
       <c r="H231">
-        <f>COUNTIF(B:B,G231)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
@@ -8635,7 +8635,7 @@
         <v>1006</v>
       </c>
       <c r="H232">
-        <f>COUNTIF(B:B,G232)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
@@ -8650,7 +8650,7 @@
         <v>1009</v>
       </c>
       <c r="H233">
-        <f>COUNTIF(B:B,G233)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
@@ -8665,7 +8665,7 @@
         <v>797</v>
       </c>
       <c r="H234">
-        <f>COUNTIF(B:B,G234)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
@@ -8680,7 +8680,7 @@
         <v>1007</v>
       </c>
       <c r="H235">
-        <f>COUNTIF(B:B,G235)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
@@ -8695,7 +8695,7 @@
         <v>1011</v>
       </c>
       <c r="H236">
-        <f>COUNTIF(B:B,G236)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
@@ -8710,7 +8710,7 @@
         <v>1012</v>
       </c>
       <c r="H237">
-        <f>COUNTIF(B:B,G237)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
@@ -8725,7 +8725,7 @@
         <v>1013</v>
       </c>
       <c r="H238">
-        <f>COUNTIF(B:B,G238)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
@@ -8740,7 +8740,7 @@
         <v>1016</v>
       </c>
       <c r="H239">
-        <f>COUNTIF(B:B,G239)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
@@ -8755,7 +8755,7 @@
         <v>1017</v>
       </c>
       <c r="H240">
-        <f>COUNTIF(B:B,G240)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
@@ -8770,7 +8770,7 @@
         <v>1018</v>
       </c>
       <c r="H241">
-        <f>COUNTIF(B:B,G241)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
@@ -8785,7 +8785,7 @@
         <v>1019</v>
       </c>
       <c r="H242">
-        <f>COUNTIF(B:B,G242)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
@@ -8800,7 +8800,7 @@
         <v>1020</v>
       </c>
       <c r="H243">
-        <f>COUNTIF(B:B,G243)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
@@ -8815,7 +8815,7 @@
         <v>1023</v>
       </c>
       <c r="H244">
-        <f>COUNTIF(B:B,G244)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
@@ -8830,7 +8830,7 @@
         <v>799</v>
       </c>
       <c r="H245">
-        <f>COUNTIF(B:B,G245)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
@@ -8845,7 +8845,7 @@
         <v>1024</v>
       </c>
       <c r="H246">
-        <f>COUNTIF(B:B,G246)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
@@ -8860,7 +8860,7 @@
         <v>1008</v>
       </c>
       <c r="H247">
-        <f>COUNTIF(B:B,G247)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
@@ -8875,7 +8875,7 @@
         <v>1022</v>
       </c>
       <c r="H248">
-        <f>COUNTIF(B:B,G248)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
@@ -8890,7 +8890,7 @@
         <v>1025</v>
       </c>
       <c r="H249">
-        <f>COUNTIF(B:B,G249)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
@@ -8905,7 +8905,7 @@
         <v>1026</v>
       </c>
       <c r="H250">
-        <f>COUNTIF(B:B,G250)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
@@ -8920,7 +8920,7 @@
         <v>1014</v>
       </c>
       <c r="H251">
-        <f>COUNTIF(B:B,G251)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
@@ -8935,7 +8935,7 @@
         <v>1138</v>
       </c>
       <c r="H252">
-        <f>COUNTIF(B:B,G252)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
@@ -8950,7 +8950,7 @@
         <v>1027</v>
       </c>
       <c r="H253">
-        <f>COUNTIF(B:B,G253)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
@@ -8965,7 +8965,7 @@
         <v>1028</v>
       </c>
       <c r="H254">
-        <f>COUNTIF(B:B,G254)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
@@ -8980,7 +8980,7 @@
         <v>1029</v>
       </c>
       <c r="H255">
-        <f>COUNTIF(B:B,G255)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
@@ -8995,7 +8995,7 @@
         <v>1030</v>
       </c>
       <c r="H256">
-        <f>COUNTIF(B:B,G256)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
@@ -9010,7 +9010,7 @@
         <v>1032</v>
       </c>
       <c r="H257">
-        <f>COUNTIF(B:B,G257)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
@@ -9025,7 +9025,7 @@
         <v>1033</v>
       </c>
       <c r="H258">
-        <f>COUNTIF(B:B,G258)</f>
+        <f t="shared" ref="H258:H321" si="4">COUNTIF(B:B,G258)</f>
         <v>1</v>
       </c>
     </row>
@@ -9040,7 +9040,7 @@
         <v>1037</v>
       </c>
       <c r="H259">
-        <f>COUNTIF(B:B,G259)</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
@@ -9055,7 +9055,7 @@
         <v>1038</v>
       </c>
       <c r="H260">
-        <f>COUNTIF(B:B,G260)</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
@@ -9070,7 +9070,7 @@
         <v>1039</v>
       </c>
       <c r="H261">
-        <f>COUNTIF(B:B,G261)</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
@@ -9085,7 +9085,7 @@
         <v>1040</v>
       </c>
       <c r="H262">
-        <f>COUNTIF(B:B,G262)</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
@@ -9100,7 +9100,7 @@
         <v>1043</v>
       </c>
       <c r="H263">
-        <f>COUNTIF(B:B,G263)</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
@@ -9115,7 +9115,7 @@
         <v>1041</v>
       </c>
       <c r="H264">
-        <f>COUNTIF(B:B,G264)</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
@@ -9130,7 +9130,7 @@
         <v>1042</v>
       </c>
       <c r="H265">
-        <f>COUNTIF(B:B,G265)</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
@@ -9145,7 +9145,7 @@
         <v>1044</v>
       </c>
       <c r="H266">
-        <f>COUNTIF(B:B,G266)</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
@@ -9160,7 +9160,7 @@
         <v>1045</v>
       </c>
       <c r="H267">
-        <f>COUNTIF(B:B,G267)</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
@@ -9175,7 +9175,7 @@
         <v>1053</v>
       </c>
       <c r="H268">
-        <f>COUNTIF(B:B,G268)</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
@@ -9190,7 +9190,7 @@
         <v>1046</v>
       </c>
       <c r="H269">
-        <f>COUNTIF(B:B,G269)</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
@@ -9205,7 +9205,7 @@
         <v>1047</v>
       </c>
       <c r="H270">
-        <f>COUNTIF(B:B,G270)</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
@@ -9220,7 +9220,7 @@
         <v>1048</v>
       </c>
       <c r="H271">
-        <f>COUNTIF(B:B,G271)</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
@@ -9235,7 +9235,7 @@
         <v>1049</v>
       </c>
       <c r="H272">
-        <f>COUNTIF(B:B,G272)</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
@@ -9250,7 +9250,7 @@
         <v>1050</v>
       </c>
       <c r="H273">
-        <f>COUNTIF(B:B,G273)</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
@@ -9265,7 +9265,7 @@
         <v>1051</v>
       </c>
       <c r="H274">
-        <f>COUNTIF(B:B,G274)</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
@@ -9280,7 +9280,7 @@
         <v>1052</v>
       </c>
       <c r="H275">
-        <f>COUNTIF(B:B,G275)</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
@@ -9295,7 +9295,7 @@
         <v>1054</v>
       </c>
       <c r="H276">
-        <f>COUNTIF(B:B,G276)</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
@@ -9310,7 +9310,7 @@
         <v>1055</v>
       </c>
       <c r="H277">
-        <f>COUNTIF(B:B,G277)</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
@@ -9325,7 +9325,7 @@
         <v>1056</v>
       </c>
       <c r="H278">
-        <f>COUNTIF(B:B,G278)</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
@@ -9340,7 +9340,7 @@
         <v>1201</v>
       </c>
       <c r="H279">
-        <f>COUNTIF(B:B,G279)</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
@@ -9355,7 +9355,7 @@
         <v>1057</v>
       </c>
       <c r="H280">
-        <f>COUNTIF(B:B,G280)</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
@@ -9370,7 +9370,7 @@
         <v>1058</v>
       </c>
       <c r="H281">
-        <f>COUNTIF(B:B,G281)</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
@@ -9385,7 +9385,7 @@
         <v>1059</v>
       </c>
       <c r="H282">
-        <f>COUNTIF(B:B,G282)</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
@@ -9400,7 +9400,7 @@
         <v>1060</v>
       </c>
       <c r="H283">
-        <f>COUNTIF(B:B,G283)</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
@@ -9415,7 +9415,7 @@
         <v>1061</v>
       </c>
       <c r="H284">
-        <f>COUNTIF(B:B,G284)</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
@@ -9430,7 +9430,7 @@
         <v>1062</v>
       </c>
       <c r="H285">
-        <f>COUNTIF(B:B,G285)</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
@@ -9445,7 +9445,7 @@
         <v>1068</v>
       </c>
       <c r="H286">
-        <f>COUNTIF(B:B,G286)</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
@@ -9460,7 +9460,7 @@
         <v>1065</v>
       </c>
       <c r="H287">
-        <f>COUNTIF(B:B,G287)</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
@@ -9475,7 +9475,7 @@
         <v>1067</v>
       </c>
       <c r="H288">
-        <f>COUNTIF(B:B,G288)</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
@@ -9490,7 +9490,7 @@
         <v>1064</v>
       </c>
       <c r="H289">
-        <f>COUNTIF(B:B,G289)</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
@@ -9505,7 +9505,7 @@
         <v>1079</v>
       </c>
       <c r="H290">
-        <f>COUNTIF(B:B,G290)</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
@@ -9520,7 +9520,7 @@
         <v>1081</v>
       </c>
       <c r="H291">
-        <f>COUNTIF(B:B,G291)</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
@@ -9535,7 +9535,7 @@
         <v>1071</v>
       </c>
       <c r="H292">
-        <f>COUNTIF(B:B,G292)</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
@@ -9550,7 +9550,7 @@
         <v>1069</v>
       </c>
       <c r="H293">
-        <f>COUNTIF(B:B,G293)</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
@@ -9565,7 +9565,7 @@
         <v>1072</v>
       </c>
       <c r="H294">
-        <f>COUNTIF(B:B,G294)</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
@@ -9580,7 +9580,7 @@
         <v>1073</v>
       </c>
       <c r="H295">
-        <f>COUNTIF(B:B,G295)</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
@@ -9595,7 +9595,7 @@
         <v>1075</v>
       </c>
       <c r="H296">
-        <f>COUNTIF(B:B,G296)</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
@@ -9610,7 +9610,7 @@
         <v>1076</v>
       </c>
       <c r="H297">
-        <f>COUNTIF(B:B,G297)</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
@@ -9625,7 +9625,7 @@
         <v>1077</v>
       </c>
       <c r="H298">
-        <f>COUNTIF(B:B,G298)</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
@@ -9640,7 +9640,7 @@
         <v>1078</v>
       </c>
       <c r="H299">
-        <f>COUNTIF(B:B,G299)</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
@@ -9655,7 +9655,7 @@
         <v>1093</v>
       </c>
       <c r="H300">
-        <f>COUNTIF(B:B,G300)</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
@@ -9670,7 +9670,7 @@
         <v>1082</v>
       </c>
       <c r="H301">
-        <f>COUNTIF(B:B,G301)</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
@@ -9685,7 +9685,7 @@
         <v>1085</v>
       </c>
       <c r="H302">
-        <f>COUNTIF(B:B,G302)</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
@@ -9700,7 +9700,7 @@
         <v>1086</v>
       </c>
       <c r="H303">
-        <f>COUNTIF(B:B,G303)</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
@@ -9715,7 +9715,7 @@
         <v>877</v>
       </c>
       <c r="H304">
-        <f>COUNTIF(B:B,G304)</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
@@ -9730,7 +9730,7 @@
         <v>795</v>
       </c>
       <c r="H305">
-        <f>COUNTIF(B:B,G305)</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
@@ -9745,7 +9745,7 @@
         <v>1087</v>
       </c>
       <c r="H306">
-        <f>COUNTIF(B:B,G306)</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
@@ -9760,7 +9760,7 @@
         <v>1088</v>
       </c>
       <c r="H307">
-        <f>COUNTIF(B:B,G307)</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
@@ -9775,7 +9775,7 @@
         <v>1080</v>
       </c>
       <c r="H308">
-        <f>COUNTIF(B:B,G308)</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
@@ -9790,7 +9790,7 @@
         <v>1094</v>
       </c>
       <c r="H309">
-        <f>COUNTIF(B:B,G309)</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
@@ -9805,7 +9805,7 @@
         <v>1091</v>
       </c>
       <c r="H310">
-        <f>COUNTIF(B:B,G310)</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
@@ -9820,7 +9820,7 @@
         <v>1095</v>
       </c>
       <c r="H311">
-        <f>COUNTIF(B:B,G311)</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
@@ -9835,7 +9835,7 @@
         <v>1089</v>
       </c>
       <c r="H312">
-        <f>COUNTIF(B:B,G312)</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
@@ -9850,7 +9850,7 @@
         <v>1090</v>
       </c>
       <c r="H313">
-        <f>COUNTIF(B:B,G313)</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
@@ -9865,7 +9865,7 @@
         <v>1092</v>
       </c>
       <c r="H314">
-        <f>COUNTIF(B:B,G314)</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
@@ -9880,7 +9880,7 @@
         <v>1097</v>
       </c>
       <c r="H315">
-        <f>COUNTIF(B:B,G315)</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
@@ -9895,7 +9895,7 @@
         <v>1096</v>
       </c>
       <c r="H316">
-        <f>COUNTIF(B:B,G316)</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
@@ -9910,7 +9910,7 @@
         <v>1098</v>
       </c>
       <c r="H317">
-        <f>COUNTIF(B:B,G317)</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
@@ -9925,7 +9925,7 @@
         <v>1099</v>
       </c>
       <c r="H318">
-        <f>COUNTIF(B:B,G318)</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
@@ -9940,7 +9940,7 @@
         <v>1100</v>
       </c>
       <c r="H319">
-        <f>COUNTIF(B:B,G319)</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
@@ -9955,7 +9955,7 @@
         <v>1101</v>
       </c>
       <c r="H320">
-        <f>COUNTIF(B:B,G320)</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
@@ -9970,7 +9970,7 @@
         <v>1102</v>
       </c>
       <c r="H321">
-        <f>COUNTIF(B:B,G321)</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
@@ -9985,7 +9985,7 @@
         <v>1103</v>
       </c>
       <c r="H322">
-        <f>COUNTIF(B:B,G322)</f>
+        <f t="shared" ref="H322:H385" si="5">COUNTIF(B:B,G322)</f>
         <v>1</v>
       </c>
     </row>
@@ -10000,7 +10000,7 @@
         <v>1104</v>
       </c>
       <c r="H323">
-        <f>COUNTIF(B:B,G323)</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
@@ -10015,7 +10015,7 @@
         <v>1105</v>
       </c>
       <c r="H324">
-        <f>COUNTIF(B:B,G324)</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
@@ -10030,7 +10030,7 @@
         <v>1106</v>
       </c>
       <c r="H325">
-        <f>COUNTIF(B:B,G325)</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
@@ -10045,7 +10045,7 @@
         <v>1107</v>
       </c>
       <c r="H326">
-        <f>COUNTIF(B:B,G326)</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
@@ -10060,7 +10060,7 @@
         <v>1108</v>
       </c>
       <c r="H327">
-        <f>COUNTIF(B:B,G327)</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
@@ -10075,7 +10075,7 @@
         <v>1109</v>
       </c>
       <c r="H328">
-        <f>COUNTIF(B:B,G328)</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
@@ -10090,7 +10090,7 @@
         <v>1110</v>
       </c>
       <c r="H329">
-        <f>COUNTIF(B:B,G329)</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
@@ -10105,7 +10105,7 @@
         <v>1113</v>
       </c>
       <c r="H330">
-        <f>COUNTIF(B:B,G330)</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
@@ -10120,7 +10120,7 @@
         <v>1115</v>
       </c>
       <c r="H331">
-        <f>COUNTIF(B:B,G331)</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
@@ -10135,7 +10135,7 @@
         <v>894</v>
       </c>
       <c r="H332">
-        <f>COUNTIF(B:B,G332)</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
@@ -10150,7 +10150,7 @@
         <v>1128</v>
       </c>
       <c r="H333">
-        <f>COUNTIF(B:B,G333)</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
@@ -10165,7 +10165,7 @@
         <v>1114</v>
       </c>
       <c r="H334">
-        <f>COUNTIF(B:B,G334)</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
@@ -10180,7 +10180,7 @@
         <v>1116</v>
       </c>
       <c r="H335">
-        <f>COUNTIF(B:B,G335)</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
@@ -10195,7 +10195,7 @@
         <v>1117</v>
       </c>
       <c r="H336">
-        <f>COUNTIF(B:B,G336)</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
@@ -10210,7 +10210,7 @@
         <v>1118</v>
       </c>
       <c r="H337">
-        <f>COUNTIF(B:B,G337)</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
@@ -10225,7 +10225,7 @@
         <v>1120</v>
       </c>
       <c r="H338">
-        <f>COUNTIF(B:B,G338)</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
@@ -10240,7 +10240,7 @@
         <v>1111</v>
       </c>
       <c r="H339">
-        <f>COUNTIF(B:B,G339)</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
@@ -10255,7 +10255,7 @@
         <v>1121</v>
       </c>
       <c r="H340">
-        <f>COUNTIF(B:B,G340)</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
@@ -10270,7 +10270,7 @@
         <v>1122</v>
       </c>
       <c r="H341">
-        <f>COUNTIF(B:B,G341)</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
@@ -10285,7 +10285,7 @@
         <v>1123</v>
       </c>
       <c r="H342">
-        <f>COUNTIF(B:B,G342)</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
@@ -10300,7 +10300,7 @@
         <v>1124</v>
       </c>
       <c r="H343">
-        <f>COUNTIF(B:B,G343)</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
@@ -10315,7 +10315,7 @@
         <v>1125</v>
       </c>
       <c r="H344">
-        <f>COUNTIF(B:B,G344)</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
@@ -10330,7 +10330,7 @@
         <v>1126</v>
       </c>
       <c r="H345">
-        <f>COUNTIF(B:B,G345)</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
@@ -10345,7 +10345,7 @@
         <v>1112</v>
       </c>
       <c r="H346">
-        <f>COUNTIF(B:B,G346)</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
@@ -10360,7 +10360,7 @@
         <v>1127</v>
       </c>
       <c r="H347">
-        <f>COUNTIF(B:B,G347)</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
@@ -10375,7 +10375,7 @@
         <v>1129</v>
       </c>
       <c r="H348">
-        <f>COUNTIF(B:B,G348)</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
@@ -10390,7 +10390,7 @@
         <v>1130</v>
       </c>
       <c r="H349">
-        <f>COUNTIF(B:B,G349)</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
@@ -10405,7 +10405,7 @@
         <v>1131</v>
       </c>
       <c r="H350">
-        <f>COUNTIF(B:B,G350)</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
@@ -10420,7 +10420,7 @@
         <v>1134</v>
       </c>
       <c r="H351">
-        <f>COUNTIF(B:B,G351)</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
@@ -10435,7 +10435,7 @@
         <v>1133</v>
       </c>
       <c r="H352">
-        <f>COUNTIF(B:B,G352)</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
@@ -10450,7 +10450,7 @@
         <v>1135</v>
       </c>
       <c r="H353">
-        <f>COUNTIF(B:B,G353)</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
@@ -10465,7 +10465,7 @@
         <v>1136</v>
       </c>
       <c r="H354">
-        <f>COUNTIF(B:B,G354)</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
@@ -10480,7 +10480,7 @@
         <v>1139</v>
       </c>
       <c r="H355">
-        <f>COUNTIF(B:B,G355)</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
@@ -10495,7 +10495,7 @@
         <v>1137</v>
       </c>
       <c r="H356">
-        <f>COUNTIF(B:B,G356)</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
@@ -10510,7 +10510,7 @@
         <v>1140</v>
       </c>
       <c r="H357">
-        <f>COUNTIF(B:B,G357)</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
@@ -10525,7 +10525,7 @@
         <v>1141</v>
       </c>
       <c r="H358">
-        <f>COUNTIF(B:B,G358)</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
@@ -10540,7 +10540,7 @@
         <v>1143</v>
       </c>
       <c r="H359">
-        <f>COUNTIF(B:B,G359)</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
@@ -10555,7 +10555,7 @@
         <v>1142</v>
       </c>
       <c r="H360">
-        <f>COUNTIF(B:B,G360)</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
@@ -10570,7 +10570,7 @@
         <v>1144</v>
       </c>
       <c r="H361">
-        <f>COUNTIF(B:B,G361)</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
@@ -10585,7 +10585,7 @@
         <v>1157</v>
       </c>
       <c r="H362">
-        <f>COUNTIF(B:B,G362)</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
@@ -10600,7 +10600,7 @@
         <v>1400</v>
       </c>
       <c r="H363">
-        <f>COUNTIF(B:B,G363)</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
@@ -10615,7 +10615,7 @@
         <v>1146</v>
       </c>
       <c r="H364">
-        <f>COUNTIF(B:B,G364)</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
@@ -10630,7 +10630,7 @@
         <v>1150</v>
       </c>
       <c r="H365">
-        <f>COUNTIF(B:B,G365)</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
@@ -10645,7 +10645,7 @@
         <v>1147</v>
       </c>
       <c r="H366">
-        <f>COUNTIF(B:B,G366)</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
@@ -10660,7 +10660,7 @@
         <v>1151</v>
       </c>
       <c r="H367">
-        <f>COUNTIF(B:B,G367)</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
@@ -10675,7 +10675,7 @@
         <v>1152</v>
       </c>
       <c r="H368">
-        <f>COUNTIF(B:B,G368)</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
@@ -10690,7 +10690,7 @@
         <v>1154</v>
       </c>
       <c r="H369">
-        <f>COUNTIF(B:B,G369)</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
@@ -10705,7 +10705,7 @@
         <v>1153</v>
       </c>
       <c r="H370">
-        <f>COUNTIF(B:B,G370)</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
@@ -10720,7 +10720,7 @@
         <v>1156</v>
       </c>
       <c r="H371">
-        <f>COUNTIF(B:B,G371)</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
@@ -10735,7 +10735,7 @@
         <v>1160</v>
       </c>
       <c r="H372">
-        <f>COUNTIF(B:B,G372)</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
@@ -10750,7 +10750,7 @@
         <v>1162</v>
       </c>
       <c r="H373">
-        <f>COUNTIF(B:B,G373)</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
@@ -10765,7 +10765,7 @@
         <v>1164</v>
       </c>
       <c r="H374">
-        <f>COUNTIF(B:B,G374)</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
@@ -10780,7 +10780,7 @@
         <v>1165</v>
       </c>
       <c r="H375">
-        <f>COUNTIF(B:B,G375)</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
@@ -10795,7 +10795,7 @@
         <v>1166</v>
       </c>
       <c r="H376">
-        <f>COUNTIF(B:B,G376)</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
@@ -10810,7 +10810,7 @@
         <v>1167</v>
       </c>
       <c r="H377">
-        <f>COUNTIF(B:B,G377)</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
@@ -10825,7 +10825,7 @@
         <v>1168</v>
       </c>
       <c r="H378">
-        <f>COUNTIF(B:B,G378)</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
@@ -10840,7 +10840,7 @@
         <v>1169</v>
       </c>
       <c r="H379">
-        <f>COUNTIF(B:B,G379)</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
@@ -10855,7 +10855,7 @@
         <v>1170</v>
       </c>
       <c r="H380">
-        <f>COUNTIF(B:B,G380)</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
@@ -10870,7 +10870,7 @@
         <v>1171</v>
       </c>
       <c r="H381">
-        <f>COUNTIF(B:B,G381)</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
@@ -10885,7 +10885,7 @@
         <v>1172</v>
       </c>
       <c r="H382">
-        <f>COUNTIF(B:B,G382)</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
@@ -10900,7 +10900,7 @@
         <v>1173</v>
       </c>
       <c r="H383">
-        <f>COUNTIF(B:B,G383)</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
@@ -10915,7 +10915,7 @@
         <v>1174</v>
       </c>
       <c r="H384">
-        <f>COUNTIF(B:B,G384)</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
@@ -10930,7 +10930,7 @@
         <v>1175</v>
       </c>
       <c r="H385">
-        <f>COUNTIF(B:B,G385)</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
@@ -10945,7 +10945,7 @@
         <v>1176</v>
       </c>
       <c r="H386">
-        <f>COUNTIF(B:B,G386)</f>
+        <f t="shared" ref="H386:H449" si="6">COUNTIF(B:B,G386)</f>
         <v>1</v>
       </c>
     </row>
@@ -10960,7 +10960,7 @@
         <v>1177</v>
       </c>
       <c r="H387">
-        <f>COUNTIF(B:B,G387)</f>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
     </row>
@@ -10975,7 +10975,7 @@
         <v>1178</v>
       </c>
       <c r="H388">
-        <f>COUNTIF(B:B,G388)</f>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
     </row>
@@ -10990,7 +10990,7 @@
         <v>1179</v>
       </c>
       <c r="H389">
-        <f>COUNTIF(B:B,G389)</f>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
     </row>
@@ -11005,7 +11005,7 @@
         <v>1180</v>
       </c>
       <c r="H390">
-        <f>COUNTIF(B:B,G390)</f>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
     </row>
@@ -11020,7 +11020,7 @@
         <v>1181</v>
       </c>
       <c r="H391">
-        <f>COUNTIF(B:B,G391)</f>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
     </row>
@@ -11035,7 +11035,7 @@
         <v>1163</v>
       </c>
       <c r="H392">
-        <f>COUNTIF(B:B,G392)</f>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
     </row>
@@ -11050,7 +11050,7 @@
         <v>1182</v>
       </c>
       <c r="H393">
-        <f>COUNTIF(B:B,G393)</f>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
     </row>
@@ -11065,7 +11065,7 @@
         <v>1185</v>
       </c>
       <c r="H394">
-        <f>COUNTIF(B:B,G394)</f>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
     </row>
@@ -11080,7 +11080,7 @@
         <v>1186</v>
       </c>
       <c r="H395">
-        <f>COUNTIF(B:B,G395)</f>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
     </row>
@@ -11095,7 +11095,7 @@
         <v>1188</v>
       </c>
       <c r="H396">
-        <f>COUNTIF(B:B,G396)</f>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
     </row>
@@ -11110,7 +11110,7 @@
         <v>1189</v>
       </c>
       <c r="H397">
-        <f>COUNTIF(B:B,G397)</f>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
     </row>
@@ -11125,7 +11125,7 @@
         <v>1184</v>
       </c>
       <c r="H398">
-        <f>COUNTIF(B:B,G398)</f>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
     </row>
@@ -11140,7 +11140,7 @@
         <v>1190</v>
       </c>
       <c r="H399">
-        <f>COUNTIF(B:B,G399)</f>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
     </row>
@@ -11155,7 +11155,7 @@
         <v>1191</v>
       </c>
       <c r="H400">
-        <f>COUNTIF(B:B,G400)</f>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
     </row>
@@ -11170,7 +11170,7 @@
         <v>1202</v>
       </c>
       <c r="H401">
-        <f>COUNTIF(B:B,G401)</f>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
     </row>
@@ -11185,7 +11185,7 @@
         <v>1192</v>
       </c>
       <c r="H402">
-        <f>COUNTIF(B:B,G402)</f>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
     </row>
@@ -11200,7 +11200,7 @@
         <v>1194</v>
       </c>
       <c r="H403">
-        <f>COUNTIF(B:B,G403)</f>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
     </row>
@@ -11215,7 +11215,7 @@
         <v>1198</v>
       </c>
       <c r="H404">
-        <f>COUNTIF(B:B,G404)</f>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
     </row>
@@ -11230,7 +11230,7 @@
         <v>1195</v>
       </c>
       <c r="H405">
-        <f>COUNTIF(B:B,G405)</f>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
     </row>
@@ -11245,7 +11245,7 @@
         <v>1200</v>
       </c>
       <c r="H406">
-        <f>COUNTIF(B:B,G406)</f>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
     </row>
@@ -11260,7 +11260,7 @@
         <v>1203</v>
       </c>
       <c r="H407">
-        <f>COUNTIF(B:B,G407)</f>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
     </row>
@@ -11275,7 +11275,7 @@
         <v>1196</v>
       </c>
       <c r="H408">
-        <f>COUNTIF(B:B,G408)</f>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
     </row>
@@ -11290,7 +11290,7 @@
         <v>1199</v>
       </c>
       <c r="H409">
-        <f>COUNTIF(B:B,G409)</f>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
     </row>
@@ -11305,7 +11305,7 @@
         <v>1204</v>
       </c>
       <c r="H410">
-        <f>COUNTIF(B:B,G410)</f>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
     </row>
@@ -11320,7 +11320,7 @@
         <v>1207</v>
       </c>
       <c r="H411">
-        <f>COUNTIF(B:B,G411)</f>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
     </row>
@@ -11335,7 +11335,7 @@
         <v>1206</v>
       </c>
       <c r="H412">
-        <f>COUNTIF(B:B,G412)</f>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
     </row>
@@ -11350,7 +11350,7 @@
         <v>1208</v>
       </c>
       <c r="H413">
-        <f>COUNTIF(B:B,G413)</f>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
     </row>
@@ -11365,7 +11365,7 @@
         <v>1205</v>
       </c>
       <c r="H414">
-        <f>COUNTIF(B:B,G414)</f>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
     </row>
@@ -11380,7 +11380,7 @@
         <v>1209</v>
       </c>
       <c r="H415">
-        <f>COUNTIF(B:B,G415)</f>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
     </row>
@@ -11395,7 +11395,7 @@
         <v>1210</v>
       </c>
       <c r="H416">
-        <f>COUNTIF(B:B,G416)</f>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
     </row>
@@ -11410,7 +11410,7 @@
         <v>1216</v>
       </c>
       <c r="H417">
-        <f>COUNTIF(B:B,G417)</f>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
     </row>
@@ -11425,7 +11425,7 @@
         <v>1211</v>
       </c>
       <c r="H418">
-        <f>COUNTIF(B:B,G418)</f>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
     </row>
@@ -11440,7 +11440,7 @@
         <v>1213</v>
       </c>
       <c r="H419">
-        <f>COUNTIF(B:B,G419)</f>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
     </row>
@@ -11455,7 +11455,7 @@
         <v>1212</v>
       </c>
       <c r="H420">
-        <f>COUNTIF(B:B,G420)</f>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
     </row>
@@ -11470,7 +11470,7 @@
         <v>1214</v>
       </c>
       <c r="H421">
-        <f>COUNTIF(B:B,G421)</f>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
     </row>
@@ -11485,7 +11485,7 @@
         <v>1215</v>
       </c>
       <c r="H422">
-        <f>COUNTIF(B:B,G422)</f>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
     </row>
@@ -11500,7 +11500,7 @@
         <v>1217</v>
       </c>
       <c r="H423">
-        <f>COUNTIF(B:B,G423)</f>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
     </row>
@@ -11515,7 +11515,7 @@
         <v>1222</v>
       </c>
       <c r="H424">
-        <f>COUNTIF(B:B,G424)</f>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
     </row>
@@ -11530,7 +11530,7 @@
         <v>1218</v>
       </c>
       <c r="H425">
-        <f>COUNTIF(B:B,G425)</f>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
     </row>
@@ -11545,7 +11545,7 @@
         <v>1219</v>
       </c>
       <c r="H426">
-        <f>COUNTIF(B:B,G426)</f>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
     </row>
@@ -11560,7 +11560,7 @@
         <v>1221</v>
       </c>
       <c r="H427">
-        <f>COUNTIF(B:B,G427)</f>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
     </row>
@@ -11575,7 +11575,7 @@
         <v>1220</v>
       </c>
       <c r="H428">
-        <f>COUNTIF(B:B,G428)</f>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
     </row>
@@ -11590,7 +11590,7 @@
         <v>1224</v>
       </c>
       <c r="H429">
-        <f>COUNTIF(B:B,G429)</f>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
     </row>
@@ -11605,7 +11605,7 @@
         <v>1223</v>
       </c>
       <c r="H430">
-        <f>COUNTIF(B:B,G430)</f>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
     </row>
@@ -11620,7 +11620,7 @@
         <v>1225</v>
       </c>
       <c r="H431">
-        <f>COUNTIF(B:B,G431)</f>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
     </row>
@@ -11635,7 +11635,7 @@
         <v>1226</v>
       </c>
       <c r="H432">
-        <f>COUNTIF(B:B,G432)</f>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
     </row>
@@ -11650,7 +11650,7 @@
         <v>1228</v>
       </c>
       <c r="H433">
-        <f>COUNTIF(B:B,G433)</f>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
     </row>
@@ -11665,7 +11665,7 @@
         <v>1229</v>
       </c>
       <c r="H434">
-        <f>COUNTIF(B:B,G434)</f>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
     </row>
@@ -11680,7 +11680,7 @@
         <v>1231</v>
       </c>
       <c r="H435">
-        <f>COUNTIF(B:B,G435)</f>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
     </row>
@@ -11695,7 +11695,7 @@
         <v>1230</v>
       </c>
       <c r="H436">
-        <f>COUNTIF(B:B,G436)</f>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
     </row>
@@ -11710,7 +11710,7 @@
         <v>1232</v>
       </c>
       <c r="H437">
-        <f>COUNTIF(B:B,G437)</f>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
     </row>
@@ -11725,7 +11725,7 @@
         <v>1242</v>
       </c>
       <c r="H438">
-        <f>COUNTIF(B:B,G438)</f>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
     </row>
@@ -11740,7 +11740,7 @@
         <v>1235</v>
       </c>
       <c r="H439">
-        <f>COUNTIF(B:B,G439)</f>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
     </row>
@@ -11755,7 +11755,7 @@
         <v>1236</v>
       </c>
       <c r="H440">
-        <f>COUNTIF(B:B,G440)</f>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
     </row>
@@ -11770,7 +11770,7 @@
         <v>1237</v>
       </c>
       <c r="H441">
-        <f>COUNTIF(B:B,G441)</f>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
     </row>
@@ -11785,7 +11785,7 @@
         <v>1238</v>
       </c>
       <c r="H442">
-        <f>COUNTIF(B:B,G442)</f>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
     </row>
@@ -11800,7 +11800,7 @@
         <v>1239</v>
       </c>
       <c r="H443">
-        <f>COUNTIF(B:B,G443)</f>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
     </row>
@@ -11815,7 +11815,7 @@
         <v>1240</v>
       </c>
       <c r="H444">
-        <f>COUNTIF(B:B,G444)</f>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
     </row>
@@ -11830,7 +11830,7 @@
         <v>1241</v>
       </c>
       <c r="H445">
-        <f>COUNTIF(B:B,G445)</f>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
     </row>
@@ -11845,7 +11845,7 @@
         <v>1243</v>
       </c>
       <c r="H446">
-        <f>COUNTIF(B:B,G446)</f>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
     </row>
@@ -11860,7 +11860,7 @@
         <v>1244</v>
       </c>
       <c r="H447">
-        <f>COUNTIF(B:B,G447)</f>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
     </row>
@@ -11875,7 +11875,7 @@
         <v>1245</v>
       </c>
       <c r="H448">
-        <f>COUNTIF(B:B,G448)</f>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
     </row>
@@ -11890,7 +11890,7 @@
         <v>1257</v>
       </c>
       <c r="H449">
-        <f>COUNTIF(B:B,G449)</f>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
     </row>
@@ -11905,7 +11905,7 @@
         <v>1246</v>
       </c>
       <c r="H450">
-        <f>COUNTIF(B:B,G450)</f>
+        <f t="shared" ref="H450:H513" si="7">COUNTIF(B:B,G450)</f>
         <v>1</v>
       </c>
     </row>
@@ -11920,7 +11920,7 @@
         <v>1247</v>
       </c>
       <c r="H451">
-        <f>COUNTIF(B:B,G451)</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
     </row>
@@ -11935,7 +11935,7 @@
         <v>1248</v>
       </c>
       <c r="H452">
-        <f>COUNTIF(B:B,G452)</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
     </row>
@@ -11950,7 +11950,7 @@
         <v>1249</v>
       </c>
       <c r="H453">
-        <f>COUNTIF(B:B,G453)</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
     </row>
@@ -11965,7 +11965,7 @@
         <v>1250</v>
       </c>
       <c r="H454">
-        <f>COUNTIF(B:B,G454)</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
     </row>
@@ -11980,7 +11980,7 @@
         <v>1251</v>
       </c>
       <c r="H455">
-        <f>COUNTIF(B:B,G455)</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
     </row>
@@ -11995,7 +11995,7 @@
         <v>1253</v>
       </c>
       <c r="H456">
-        <f>COUNTIF(B:B,G456)</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
     </row>
@@ -12010,7 +12010,7 @@
         <v>1255</v>
       </c>
       <c r="H457">
-        <f>COUNTIF(B:B,G457)</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
     </row>
@@ -12025,7 +12025,7 @@
         <v>1273</v>
       </c>
       <c r="H458">
-        <f>COUNTIF(B:B,G458)</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
     </row>
@@ -12040,7 +12040,7 @@
         <v>1258</v>
       </c>
       <c r="H459">
-        <f>COUNTIF(B:B,G459)</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
     </row>
@@ -12055,7 +12055,7 @@
         <v>1260</v>
       </c>
       <c r="H460">
-        <f>COUNTIF(B:B,G460)</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
     </row>
@@ -12070,7 +12070,7 @@
         <v>1261</v>
       </c>
       <c r="H461">
-        <f>COUNTIF(B:B,G461)</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
     </row>
@@ -12085,7 +12085,7 @@
         <v>1263</v>
       </c>
       <c r="H462">
-        <f>COUNTIF(B:B,G462)</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
     </row>
@@ -12100,7 +12100,7 @@
         <v>1264</v>
       </c>
       <c r="H463">
-        <f>COUNTIF(B:B,G463)</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
     </row>
@@ -12115,7 +12115,7 @@
         <v>1274</v>
       </c>
       <c r="H464">
-        <f>COUNTIF(B:B,G464)</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
     </row>
@@ -12130,7 +12130,7 @@
         <v>1259</v>
       </c>
       <c r="H465">
-        <f>COUNTIF(B:B,G465)</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
     </row>
@@ -12145,7 +12145,7 @@
         <v>1267</v>
       </c>
       <c r="H466">
-        <f>COUNTIF(B:B,G466)</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
     </row>
@@ -12160,7 +12160,7 @@
         <v>1268</v>
       </c>
       <c r="H467">
-        <f>COUNTIF(B:B,G467)</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
     </row>
@@ -12175,7 +12175,7 @@
         <v>1269</v>
       </c>
       <c r="H468">
-        <f>COUNTIF(B:B,G468)</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
     </row>
@@ -12190,7 +12190,7 @@
         <v>1270</v>
       </c>
       <c r="H469">
-        <f>COUNTIF(B:B,G469)</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
     </row>
@@ -12205,7 +12205,7 @@
         <v>1271</v>
       </c>
       <c r="H470">
-        <f>COUNTIF(B:B,G470)</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
     </row>
@@ -12220,7 +12220,7 @@
         <v>1272</v>
       </c>
       <c r="H471">
-        <f>COUNTIF(B:B,G471)</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
     </row>
@@ -12235,7 +12235,7 @@
         <v>1031</v>
       </c>
       <c r="H472">
-        <f>COUNTIF(B:B,G472)</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
     </row>
@@ -12250,7 +12250,7 @@
         <v>1276</v>
       </c>
       <c r="H473">
-        <f>COUNTIF(B:B,G473)</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
     </row>
@@ -12265,7 +12265,7 @@
         <v>1277</v>
       </c>
       <c r="H474">
-        <f>COUNTIF(B:B,G474)</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
     </row>
@@ -12280,7 +12280,7 @@
         <v>1287</v>
       </c>
       <c r="H475">
-        <f>COUNTIF(B:B,G475)</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
     </row>
@@ -12295,7 +12295,7 @@
         <v>1279</v>
       </c>
       <c r="H476">
-        <f>COUNTIF(B:B,G476)</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
     </row>
@@ -12310,7 +12310,7 @@
         <v>1280</v>
       </c>
       <c r="H477">
-        <f>COUNTIF(B:B,G477)</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
     </row>
@@ -12325,7 +12325,7 @@
         <v>1281</v>
       </c>
       <c r="H478">
-        <f>COUNTIF(B:B,G478)</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
     </row>
@@ -12340,7 +12340,7 @@
         <v>1282</v>
       </c>
       <c r="H479">
-        <f>COUNTIF(B:B,G479)</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
     </row>
@@ -12355,7 +12355,7 @@
         <v>1284</v>
       </c>
       <c r="H480">
-        <f>COUNTIF(B:B,G480)</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
     </row>
@@ -12370,7 +12370,7 @@
         <v>1285</v>
       </c>
       <c r="H481">
-        <f>COUNTIF(B:B,G481)</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
     </row>
@@ -12385,7 +12385,7 @@
         <v>1286</v>
       </c>
       <c r="H482">
-        <f>COUNTIF(B:B,G482)</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
     </row>
@@ -12400,7 +12400,7 @@
         <v>1288</v>
       </c>
       <c r="H483">
-        <f>COUNTIF(B:B,G483)</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
     </row>
@@ -12415,7 +12415,7 @@
         <v>1289</v>
       </c>
       <c r="H484">
-        <f>COUNTIF(B:B,G484)</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
     </row>
@@ -12430,7 +12430,7 @@
         <v>1291</v>
       </c>
       <c r="H485">
-        <f>COUNTIF(B:B,G485)</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
     </row>
@@ -12445,7 +12445,7 @@
         <v>1292</v>
       </c>
       <c r="H486">
-        <f>COUNTIF(B:B,G486)</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
     </row>
@@ -12460,7 +12460,7 @@
         <v>1293</v>
       </c>
       <c r="H487">
-        <f>COUNTIF(B:B,G487)</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
     </row>
@@ -12475,7 +12475,7 @@
         <v>1307</v>
       </c>
       <c r="H488">
-        <f>COUNTIF(B:B,G488)</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
     </row>
@@ -12490,7 +12490,7 @@
         <v>1295</v>
       </c>
       <c r="H489">
-        <f>COUNTIF(B:B,G489)</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
     </row>
@@ -12505,7 +12505,7 @@
         <v>1290</v>
       </c>
       <c r="H490">
-        <f>COUNTIF(B:B,G490)</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
     </row>
@@ -12520,7 +12520,7 @@
         <v>1296</v>
       </c>
       <c r="H491">
-        <f>COUNTIF(B:B,G491)</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
     </row>
@@ -12535,7 +12535,7 @@
         <v>1297</v>
       </c>
       <c r="H492">
-        <f>COUNTIF(B:B,G492)</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
     </row>
@@ -12550,7 +12550,7 @@
         <v>1298</v>
       </c>
       <c r="H493">
-        <f>COUNTIF(B:B,G493)</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
     </row>
@@ -12565,7 +12565,7 @@
         <v>1299</v>
       </c>
       <c r="H494">
-        <f>COUNTIF(B:B,G494)</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
     </row>
@@ -12580,7 +12580,7 @@
         <v>1300</v>
       </c>
       <c r="H495">
-        <f>COUNTIF(B:B,G495)</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
     </row>
@@ -12595,7 +12595,7 @@
         <v>1301</v>
       </c>
       <c r="H496">
-        <f>COUNTIF(B:B,G496)</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
     </row>
@@ -12610,7 +12610,7 @@
         <v>1302</v>
       </c>
       <c r="H497">
-        <f>COUNTIF(B:B,G497)</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
     </row>
@@ -12625,7 +12625,7 @@
         <v>1303</v>
       </c>
       <c r="H498">
-        <f>COUNTIF(B:B,G498)</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
     </row>
@@ -12640,7 +12640,7 @@
         <v>1304</v>
       </c>
       <c r="H499">
-        <f>COUNTIF(B:B,G499)</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
     </row>
@@ -12655,7 +12655,7 @@
         <v>1305</v>
       </c>
       <c r="H500">
-        <f>COUNTIF(B:B,G500)</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
     </row>
@@ -12670,7 +12670,7 @@
         <v>1306</v>
       </c>
       <c r="H501">
-        <f>COUNTIF(B:B,G501)</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
     </row>
@@ -12685,7 +12685,7 @@
         <v>1308</v>
       </c>
       <c r="H502">
-        <f>COUNTIF(B:B,G502)</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
     </row>
@@ -12700,7 +12700,7 @@
         <v>1309</v>
       </c>
       <c r="H503">
-        <f>COUNTIF(B:B,G503)</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
     </row>
@@ -12715,7 +12715,7 @@
         <v>1312</v>
       </c>
       <c r="H504">
-        <f>COUNTIF(B:B,G504)</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
     </row>
@@ -12730,7 +12730,7 @@
         <v>1313</v>
       </c>
       <c r="H505">
-        <f>COUNTIF(B:B,G505)</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
     </row>
@@ -12745,7 +12745,7 @@
         <v>1314</v>
       </c>
       <c r="H506">
-        <f>COUNTIF(B:B,G506)</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
     </row>
@@ -12760,7 +12760,7 @@
         <v>1316</v>
       </c>
       <c r="H507">
-        <f>COUNTIF(B:B,G507)</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
     </row>
@@ -12775,7 +12775,7 @@
         <v>1317</v>
       </c>
       <c r="H508">
-        <f>COUNTIF(B:B,G508)</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
     </row>
@@ -12790,7 +12790,7 @@
         <v>1318</v>
       </c>
       <c r="H509">
-        <f>COUNTIF(B:B,G509)</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
     </row>
@@ -12805,7 +12805,7 @@
         <v>1319</v>
       </c>
       <c r="H510">
-        <f>COUNTIF(B:B,G510)</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
     </row>
@@ -12820,7 +12820,7 @@
         <v>1320</v>
       </c>
       <c r="H511">
-        <f>COUNTIF(B:B,G511)</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
     </row>
@@ -12835,7 +12835,7 @@
         <v>1321</v>
       </c>
       <c r="H512">
-        <f>COUNTIF(B:B,G512)</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
     </row>
@@ -12850,7 +12850,7 @@
         <v>1322</v>
       </c>
       <c r="H513">
-        <f>COUNTIF(B:B,G513)</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
     </row>
@@ -12865,7 +12865,7 @@
         <v>1294</v>
       </c>
       <c r="H514">
-        <f>COUNTIF(B:B,G514)</f>
+        <f t="shared" ref="H514:H577" si="8">COUNTIF(B:B,G514)</f>
         <v>1</v>
       </c>
     </row>
@@ -12880,7 +12880,7 @@
         <v>1323</v>
       </c>
       <c r="H515">
-        <f>COUNTIF(B:B,G515)</f>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
     </row>
@@ -12895,7 +12895,7 @@
         <v>1324</v>
       </c>
       <c r="H516">
-        <f>COUNTIF(B:B,G516)</f>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
     </row>
@@ -12910,7 +12910,7 @@
         <v>1278</v>
       </c>
       <c r="H517">
-        <f>COUNTIF(B:B,G517)</f>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
     </row>
@@ -12925,7 +12925,7 @@
         <v>1325</v>
       </c>
       <c r="H518">
-        <f>COUNTIF(B:B,G518)</f>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
     </row>
@@ -12940,7 +12940,7 @@
         <v>1326</v>
       </c>
       <c r="H519">
-        <f>COUNTIF(B:B,G519)</f>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
     </row>
@@ -12955,7 +12955,7 @@
         <v>1311</v>
       </c>
       <c r="H520">
-        <f>COUNTIF(B:B,G520)</f>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
     </row>
@@ -12970,7 +12970,7 @@
         <v>1327</v>
       </c>
       <c r="H521">
-        <f>COUNTIF(B:B,G521)</f>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
     </row>
@@ -12985,7 +12985,7 @@
         <v>1330</v>
       </c>
       <c r="H522">
-        <f>COUNTIF(B:B,G522)</f>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
     </row>
@@ -13000,7 +13000,7 @@
         <v>1329</v>
       </c>
       <c r="H523">
-        <f>COUNTIF(B:B,G523)</f>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
     </row>
@@ -13015,7 +13015,7 @@
         <v>1331</v>
       </c>
       <c r="H524">
-        <f>COUNTIF(B:B,G524)</f>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
     </row>
@@ -13030,7 +13030,7 @@
         <v>1332</v>
       </c>
       <c r="H525">
-        <f>COUNTIF(B:B,G525)</f>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
     </row>
@@ -13045,7 +13045,7 @@
         <v>1333</v>
       </c>
       <c r="H526">
-        <f>COUNTIF(B:B,G526)</f>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
     </row>
@@ -13060,7 +13060,7 @@
         <v>1334</v>
       </c>
       <c r="H527">
-        <f>COUNTIF(B:B,G527)</f>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
     </row>
@@ -13075,7 +13075,7 @@
         <v>1336</v>
       </c>
       <c r="H528">
-        <f>COUNTIF(B:B,G528)</f>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
     </row>
@@ -13090,7 +13090,7 @@
         <v>1338</v>
       </c>
       <c r="H529">
-        <f>COUNTIF(B:B,G529)</f>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
     </row>
@@ -13105,7 +13105,7 @@
         <v>1339</v>
       </c>
       <c r="H530">
-        <f>COUNTIF(B:B,G530)</f>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
     </row>
@@ -13120,7 +13120,7 @@
         <v>1340</v>
       </c>
       <c r="H531">
-        <f>COUNTIF(B:B,G531)</f>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
     </row>
@@ -13135,7 +13135,7 @@
         <v>1341</v>
       </c>
       <c r="H532">
-        <f>COUNTIF(B:B,G532)</f>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
     </row>
@@ -13150,7 +13150,7 @@
         <v>1344</v>
       </c>
       <c r="H533">
-        <f>COUNTIF(B:B,G533)</f>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
     </row>
@@ -13165,7 +13165,7 @@
         <v>1345</v>
       </c>
       <c r="H534">
-        <f>COUNTIF(B:B,G534)</f>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
     </row>
@@ -13180,7 +13180,7 @@
         <v>824</v>
       </c>
       <c r="H535">
-        <f>COUNTIF(B:B,G535)</f>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
     </row>
@@ -13195,7 +13195,7 @@
         <v>831</v>
       </c>
       <c r="H536">
-        <f>COUNTIF(B:B,G536)</f>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
     </row>
@@ -13210,7 +13210,7 @@
         <v>1347</v>
       </c>
       <c r="H537">
-        <f>COUNTIF(B:B,G537)</f>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
     </row>
@@ -13225,7 +13225,7 @@
         <v>1342</v>
       </c>
       <c r="H538">
-        <f>COUNTIF(B:B,G538)</f>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
     </row>
@@ -13240,7 +13240,7 @@
         <v>1359</v>
       </c>
       <c r="H539">
-        <f>COUNTIF(B:B,G539)</f>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
     </row>
@@ -13255,7 +13255,7 @@
         <v>1348</v>
       </c>
       <c r="H540">
-        <f>COUNTIF(B:B,G540)</f>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
     </row>
@@ -13270,7 +13270,7 @@
         <v>889</v>
       </c>
       <c r="H541">
-        <f>COUNTIF(B:B,G541)</f>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
     </row>
@@ -13285,7 +13285,7 @@
         <v>912</v>
       </c>
       <c r="H542">
-        <f>COUNTIF(B:B,G542)</f>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
     </row>
@@ -13300,7 +13300,7 @@
         <v>914</v>
       </c>
       <c r="H543">
-        <f>COUNTIF(B:B,G543)</f>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
     </row>
@@ -13315,7 +13315,7 @@
         <v>915</v>
       </c>
       <c r="H544">
-        <f>COUNTIF(B:B,G544)</f>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
     </row>
@@ -13330,7 +13330,7 @@
         <v>938</v>
       </c>
       <c r="H545">
-        <f>COUNTIF(B:B,G545)</f>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
     </row>
@@ -13345,7 +13345,7 @@
         <v>943</v>
       </c>
       <c r="H546">
-        <f>COUNTIF(B:B,G546)</f>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
     </row>
@@ -13360,7 +13360,7 @@
         <v>957</v>
       </c>
       <c r="H547">
-        <f>COUNTIF(B:B,G547)</f>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
     </row>
@@ -13375,7 +13375,7 @@
         <v>959</v>
       </c>
       <c r="H548">
-        <f>COUNTIF(B:B,G548)</f>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
     </row>
@@ -13390,7 +13390,7 @@
         <v>1360</v>
       </c>
       <c r="H549">
-        <f>COUNTIF(B:B,G549)</f>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
     </row>
@@ -13405,7 +13405,7 @@
         <v>1350</v>
       </c>
       <c r="H550">
-        <f>COUNTIF(B:B,G550)</f>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
     </row>
@@ -13420,7 +13420,7 @@
         <v>1015</v>
       </c>
       <c r="H551">
-        <f>COUNTIF(B:B,G551)</f>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
     </row>
@@ -13435,7 +13435,7 @@
         <v>1010</v>
       </c>
       <c r="H552">
-        <f>COUNTIF(B:B,G552)</f>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
     </row>
@@ -13450,7 +13450,7 @@
         <v>1351</v>
       </c>
       <c r="H553">
-        <f>COUNTIF(B:B,G553)</f>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
     </row>
@@ -13465,7 +13465,7 @@
         <v>1328</v>
       </c>
       <c r="H554">
-        <f>COUNTIF(B:B,G554)</f>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
     </row>
@@ -13480,7 +13480,7 @@
         <v>1066</v>
       </c>
       <c r="H555">
-        <f>COUNTIF(B:B,G555)</f>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
     </row>
@@ -13495,7 +13495,7 @@
         <v>1361</v>
       </c>
       <c r="H556">
-        <f>COUNTIF(B:B,G556)</f>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
     </row>
@@ -13510,7 +13510,7 @@
         <v>1352</v>
       </c>
       <c r="H557">
-        <f>COUNTIF(B:B,G557)</f>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
     </row>
@@ -13525,7 +13525,7 @@
         <v>1132</v>
       </c>
       <c r="H558">
-        <f>COUNTIF(B:B,G558)</f>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
     </row>
@@ -13540,7 +13540,7 @@
         <v>1148</v>
       </c>
       <c r="H559">
-        <f>COUNTIF(B:B,G559)</f>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
     </row>
@@ -13555,7 +13555,7 @@
         <v>1149</v>
       </c>
       <c r="H560">
-        <f>COUNTIF(B:B,G560)</f>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
     </row>
@@ -13570,7 +13570,7 @@
         <v>1161</v>
       </c>
       <c r="H561">
-        <f>COUNTIF(B:B,G561)</f>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
     </row>
@@ -13585,7 +13585,7 @@
         <v>1353</v>
       </c>
       <c r="H562">
-        <f>COUNTIF(B:B,G562)</f>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
     </row>
@@ -13600,7 +13600,7 @@
         <v>1354</v>
       </c>
       <c r="H563">
-        <f>COUNTIF(B:B,G563)</f>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
     </row>
@@ -13615,7 +13615,7 @@
         <v>1227</v>
       </c>
       <c r="H564">
-        <f>COUNTIF(B:B,G564)</f>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
     </row>
@@ -13630,7 +13630,7 @@
         <v>1233</v>
       </c>
       <c r="H565">
-        <f>COUNTIF(B:B,G565)</f>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
     </row>
@@ -13645,7 +13645,7 @@
         <v>1234</v>
       </c>
       <c r="H566">
-        <f>COUNTIF(B:B,G566)</f>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
     </row>
@@ -13660,7 +13660,7 @@
         <v>1252</v>
       </c>
       <c r="H567">
-        <f>COUNTIF(B:B,G567)</f>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
     </row>
@@ -13675,7 +13675,7 @@
         <v>1265</v>
       </c>
       <c r="H568">
-        <f>COUNTIF(B:B,G568)</f>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
     </row>
@@ -13690,7 +13690,7 @@
         <v>1283</v>
       </c>
       <c r="H569">
-        <f>COUNTIF(B:B,G569)</f>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
     </row>
@@ -13705,7 +13705,7 @@
         <v>1310</v>
       </c>
       <c r="H570">
-        <f>COUNTIF(B:B,G570)</f>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
     </row>
@@ -13720,7 +13720,7 @@
         <v>1358</v>
       </c>
       <c r="H571">
-        <f>COUNTIF(B:B,G571)</f>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
     </row>
@@ -13735,7 +13735,7 @@
         <v>1335</v>
       </c>
       <c r="H572">
-        <f>COUNTIF(B:B,G572)</f>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
     </row>
@@ -13750,7 +13750,7 @@
         <v>1355</v>
       </c>
       <c r="H573">
-        <f>COUNTIF(B:B,G573)</f>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
     </row>
@@ -13765,7 +13765,7 @@
         <v>1401</v>
       </c>
       <c r="H574">
-        <f>COUNTIF(B:B,G574)</f>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
     </row>
@@ -13780,7 +13780,7 @@
         <v>1403</v>
       </c>
       <c r="H575">
-        <f>COUNTIF(B:B,G575)</f>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
     </row>
@@ -13795,7 +13795,7 @@
         <v>1369</v>
       </c>
       <c r="H576">
-        <f>COUNTIF(B:B,G576)</f>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
     </row>
@@ -13810,7 +13810,7 @@
         <v>1357</v>
       </c>
       <c r="H577">
-        <f>COUNTIF(B:B,G577)</f>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
     </row>
@@ -13825,7 +13825,7 @@
         <v>1421</v>
       </c>
       <c r="H578">
-        <f>COUNTIF(B:B,G578)</f>
+        <f t="shared" ref="H578:H641" si="9">COUNTIF(B:B,G578)</f>
         <v>1</v>
       </c>
     </row>
@@ -13840,7 +13840,7 @@
         <v>1424</v>
       </c>
       <c r="H579">
-        <f>COUNTIF(B:B,G579)</f>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
     </row>
@@ -13855,7 +13855,7 @@
         <v>1362</v>
       </c>
       <c r="H580">
-        <f>COUNTIF(B:B,G580)</f>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
     </row>
@@ -13870,7 +13870,7 @@
         <v>1363</v>
       </c>
       <c r="H581">
-        <f>COUNTIF(B:B,G581)</f>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
     </row>
@@ -13885,7 +13885,7 @@
         <v>1364</v>
       </c>
       <c r="H582">
-        <f>COUNTIF(B:B,G582)</f>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
     </row>
@@ -13900,7 +13900,7 @@
         <v>1365</v>
       </c>
       <c r="H583">
-        <f>COUNTIF(B:B,G583)</f>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
     </row>
@@ -13915,7 +13915,7 @@
         <v>1366</v>
       </c>
       <c r="H584">
-        <f>COUNTIF(B:B,G584)</f>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
     </row>
@@ -13930,7 +13930,7 @@
         <v>1367</v>
       </c>
       <c r="H585">
-        <f>COUNTIF(B:B,G585)</f>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
     </row>
@@ -13945,7 +13945,7 @@
         <v>1368</v>
       </c>
       <c r="H586">
-        <f>COUNTIF(B:B,G586)</f>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
     </row>
@@ -13960,7 +13960,7 @@
         <v>1372</v>
       </c>
       <c r="H587">
-        <f>COUNTIF(B:B,G587)</f>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
     </row>
@@ -13975,7 +13975,7 @@
         <v>1373</v>
       </c>
       <c r="H588">
-        <f>COUNTIF(B:B,G588)</f>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
     </row>
@@ -13990,7 +13990,7 @@
         <v>1337</v>
       </c>
       <c r="H589">
-        <f>COUNTIF(B:B,G589)</f>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
     </row>
@@ -14005,7 +14005,7 @@
         <v>1375</v>
       </c>
       <c r="H590">
-        <f>COUNTIF(B:B,G590)</f>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
     </row>
@@ -14020,7 +14020,7 @@
         <v>1374</v>
       </c>
       <c r="H591">
-        <f>COUNTIF(B:B,G591)</f>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
     </row>
@@ -14035,7 +14035,7 @@
         <v>1376</v>
       </c>
       <c r="H592">
-        <f>COUNTIF(B:B,G592)</f>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
     </row>
@@ -14050,7 +14050,7 @@
         <v>1377</v>
       </c>
       <c r="H593">
-        <f>COUNTIF(B:B,G593)</f>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
     </row>
@@ -14065,7 +14065,7 @@
         <v>1378</v>
       </c>
       <c r="H594">
-        <f>COUNTIF(B:B,G594)</f>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
     </row>
@@ -14080,7 +14080,7 @@
         <v>1380</v>
       </c>
       <c r="H595">
-        <f>COUNTIF(B:B,G595)</f>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
     </row>
@@ -14095,7 +14095,7 @@
         <v>1381</v>
       </c>
       <c r="H596">
-        <f>COUNTIF(B:B,G596)</f>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
     </row>
@@ -14110,7 +14110,7 @@
         <v>1382</v>
       </c>
       <c r="H597">
-        <f>COUNTIF(B:B,G597)</f>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
     </row>
@@ -14125,7 +14125,7 @@
         <v>1379</v>
       </c>
       <c r="H598">
-        <f>COUNTIF(B:B,G598)</f>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
     </row>
@@ -14140,7 +14140,7 @@
         <v>1383</v>
       </c>
       <c r="H599">
-        <f>COUNTIF(B:B,G599)</f>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
     </row>
@@ -14155,7 +14155,7 @@
         <v>1384</v>
       </c>
       <c r="H600">
-        <f>COUNTIF(B:B,G600)</f>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
     </row>
@@ -14170,7 +14170,7 @@
         <v>1385</v>
       </c>
       <c r="H601">
-        <f>COUNTIF(B:B,G601)</f>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
     </row>
@@ -14185,7 +14185,7 @@
         <v>1386</v>
       </c>
       <c r="H602">
-        <f>COUNTIF(B:B,G602)</f>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
     </row>
@@ -14200,7 +14200,7 @@
         <v>1387</v>
       </c>
       <c r="H603">
-        <f>COUNTIF(B:B,G603)</f>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
     </row>
@@ -14215,7 +14215,7 @@
         <v>1388</v>
       </c>
       <c r="H604">
-        <f>COUNTIF(B:B,G604)</f>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
     </row>
@@ -14230,7 +14230,7 @@
         <v>1389</v>
       </c>
       <c r="H605">
-        <f>COUNTIF(B:B,G605)</f>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
     </row>
@@ -14245,7 +14245,7 @@
         <v>1390</v>
       </c>
       <c r="H606">
-        <f>COUNTIF(B:B,G606)</f>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
     </row>
@@ -14260,7 +14260,7 @@
         <v>1391</v>
       </c>
       <c r="H607">
-        <f>COUNTIF(B:B,G607)</f>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
     </row>
@@ -14275,7 +14275,7 @@
         <v>1392</v>
       </c>
       <c r="H608">
-        <f>COUNTIF(B:B,G608)</f>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
     </row>
@@ -14290,7 +14290,7 @@
         <v>1396</v>
       </c>
       <c r="H609">
-        <f>COUNTIF(B:B,G609)</f>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
     </row>
@@ -14305,7 +14305,7 @@
         <v>1398</v>
       </c>
       <c r="H610">
-        <f>COUNTIF(B:B,G610)</f>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
     </row>
@@ -14320,7 +14320,7 @@
         <v>1399</v>
       </c>
       <c r="H611">
-        <f>COUNTIF(B:B,G611)</f>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
     </row>
@@ -14335,7 +14335,7 @@
         <v>1402</v>
       </c>
       <c r="H612">
-        <f>COUNTIF(B:B,G612)</f>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
     </row>
@@ -14350,7 +14350,7 @@
         <v>1406</v>
       </c>
       <c r="H613">
-        <f>COUNTIF(B:B,G613)</f>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
     </row>
@@ -14365,7 +14365,7 @@
         <v>1404</v>
       </c>
       <c r="H614">
-        <f>COUNTIF(B:B,G614)</f>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
     </row>
@@ -14380,7 +14380,7 @@
         <v>1405</v>
       </c>
       <c r="H615">
-        <f>COUNTIF(B:B,G615)</f>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
     </row>
@@ -14395,7 +14395,7 @@
         <v>1407</v>
       </c>
       <c r="H616">
-        <f>COUNTIF(B:B,G616)</f>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
     </row>
@@ -14410,7 +14410,7 @@
         <v>1408</v>
       </c>
       <c r="H617">
-        <f>COUNTIF(B:B,G617)</f>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
     </row>
@@ -14425,7 +14425,7 @@
         <v>1409</v>
       </c>
       <c r="H618">
-        <f>COUNTIF(B:B,G618)</f>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
     </row>
@@ -14440,7 +14440,7 @@
         <v>1410</v>
       </c>
       <c r="H619">
-        <f>COUNTIF(B:B,G619)</f>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
     </row>
@@ -14455,7 +14455,7 @@
         <v>1411</v>
       </c>
       <c r="H620">
-        <f>COUNTIF(B:B,G620)</f>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
     </row>
@@ -14470,7 +14470,7 @@
         <v>1413</v>
       </c>
       <c r="H621">
-        <f>COUNTIF(B:B,G621)</f>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
     </row>
@@ -14485,7 +14485,7 @@
         <v>1183</v>
       </c>
       <c r="H622">
-        <f>COUNTIF(B:B,G622)</f>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
     </row>
@@ -14500,7 +14500,7 @@
         <v>1414</v>
       </c>
       <c r="H623">
-        <f>COUNTIF(B:B,G623)</f>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
     </row>
@@ -14515,7 +14515,7 @@
         <v>1415</v>
       </c>
       <c r="H624">
-        <f>COUNTIF(B:B,G624)</f>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
     </row>
@@ -14530,7 +14530,7 @@
         <v>1416</v>
       </c>
       <c r="H625">
-        <f>COUNTIF(B:B,G625)</f>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
     </row>
@@ -14545,7 +14545,7 @@
         <v>1417</v>
       </c>
       <c r="H626">
-        <f>COUNTIF(B:B,G626)</f>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
     </row>
@@ -14560,7 +14560,7 @@
         <v>1418</v>
       </c>
       <c r="H627">
-        <f>COUNTIF(B:B,G627)</f>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
     </row>
@@ -14575,7 +14575,7 @@
         <v>1419</v>
       </c>
       <c r="H628">
-        <f>COUNTIF(B:B,G628)</f>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
     </row>
@@ -14590,7 +14590,7 @@
         <v>1420</v>
       </c>
       <c r="H629">
-        <f>COUNTIF(B:B,G629)</f>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
     </row>
@@ -14605,7 +14605,7 @@
         <v>1422</v>
       </c>
       <c r="H630">
-        <f>COUNTIF(B:B,G630)</f>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
     </row>
@@ -14620,7 +14620,7 @@
         <v>1423</v>
       </c>
       <c r="H631">
-        <f>COUNTIF(B:B,G631)</f>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
     </row>
@@ -14635,7 +14635,7 @@
         <v>1425</v>
       </c>
       <c r="H632">
-        <f>COUNTIF(B:B,G632)</f>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
     </row>
